--- a/Calculation/Power Model for Sensor Device.xlsx
+++ b/Calculation/Power Model for Sensor Device.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iris/Library/Mobile Documents/com~apple~CloudDocs/Desktop/UW/514 Hardware Software Lab/Final/Calculation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10128330-AB49-3B4A-8702-2337383F096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA99F9-A9DA-804D-9F30-8A8E83795DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11360" yWindow="760" windowWidth="23200" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System Parameters" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>System Parameters (defined by hardware)</t>
   </si>
   <si>
     <t>Profiles (usage of each component mode - defined by software and usage)</t>
-  </si>
-  <si>
-    <t>"off"</t>
-  </si>
-  <si>
-    <t>"sensing"</t>
-  </si>
-  <si>
-    <t>"interactive"</t>
   </si>
   <si>
     <t>Processor</t>
@@ -138,9 +129,6 @@
     <t>Hours of Use</t>
   </si>
   <si>
-    <t xml:space="preserve">REFLECTIONS : WHAT DID YOU LEARN FROM ANALYZING YOUR POWER.  TALK ABOUT SOME POTENTIAL TRADEOFFS. </t>
-  </si>
-  <si>
     <t>Linked Data from First Page DO NOT EDIT</t>
   </si>
   <si>
@@ -156,12 +144,6 @@
     <t>ProcessorIdle</t>
   </si>
   <si>
-    <t>ProcessorOff</t>
-  </si>
-  <si>
-    <t>LEDOn</t>
-  </si>
-  <si>
     <t>SensorOn</t>
   </si>
   <si>
@@ -169,12 +151,6 @@
   </si>
   <si>
     <t>SensorOff</t>
-  </si>
-  <si>
-    <t>DisplayOn</t>
-  </si>
-  <si>
-    <t>DisplayOff</t>
   </si>
   <si>
     <t>RadioStandby</t>
@@ -215,6 +191,95 @@
   <si>
     <t>Full bright</t>
   </si>
+  <si>
+    <t>https://github.com/IrisYzh/Smart_Water_Intake_Tracker/blob/main/Datasheets/SK6812RGBW-Neopixel.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/IrisYzh/Smart_Water_Intake_Tracker/blob/main/Datasheets/TAL221.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/IrisYzh/Smart_Water_Intake_Tracker/blob/main/Datasheets/hx711_english.pdf</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Detecting</t>
+  </si>
+  <si>
+    <t>ProcessorSleep</t>
+  </si>
+  <si>
+    <t>LED100%</t>
+  </si>
+  <si>
+    <t>LED10%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How did you determine your "days of use" metric?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I measured power consumption in three operating modes: sleep at 7.5 mW for 16 hours, monitoring at 82.6 mW for 6.5 hours, and detecting at 207 mW for 1.5 hours. The total daily energy consumption is 967 mW·h. Dividing the battery capacity of 1099 mW·h by this daily consumption gives 1.14 days of use.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+What do you think is the optimum size for the battery in your device?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A 600 mAh battery at 3.7V provides about 2.3 days of runtime, which is optimal for this device. This gives users flexibility to skip a day of charging without the device dying. Going smaller to 300-400 mAh would require daily charging, which is inconvenient if users forget to charge. Going larger to 800-1000 mAh would make the coaster thicker and heavier, which isn't ideal because the coaster needs to be thin and lightweight to fit under a cup. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+What hardware/software/cost/effort tradeoffs could you make to improve the user experience?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The LED is the biggest power consumer at 55% of monitoring mode energy. I could turn it off completely when weight is stable and only flash briefly when detecting changes, which would cut LED power by 80% with just a simple code change. Also, the weight sensor checks every 3 seconds, but I could extend this to 5-10 seconds when no cup is detected, saving about 20% of sensor power without affecting user experience. I'm also thinking about reducing BLE transmission frequency from every weight change to only significant changes. This would save radio power but requires more intelligent filtering logic. The software optimizations are easiest to implement and could extend battery life to 2+ days without any hardware changes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
 </sst>
 </file>
 
@@ -234,6 +299,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,6 +307,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -434,7 +501,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,19 +524,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,9 +593,9 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$D$99:$O$99</c:f>
+              <c:f>'Sensitivity Analysis'!$D$99:$N$99</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>ProcessorActive</c:v>
                 </c:pt>
@@ -533,33 +603,30 @@
                   <c:v>ProcessorIdle</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ProcessorOff</c:v>
+                  <c:v>ProcessorSleep</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LEDOn</c:v>
+                  <c:v>LED100%</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>LED10%</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>SensorOn</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>SensorIdle</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>SensorOff</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>DisplayOn</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>DisplayOff</c:v>
+                  <c:v>RadioStandby</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>RadioStandby</c:v>
+                  <c:v>RadioTX</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>RadioTX</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>RadioRX</c:v>
                 </c:pt>
               </c:strCache>
@@ -567,45 +634,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sensitivity Analysis'!$D$98:$O$98</c:f>
+              <c:f>'Sensitivity Analysis'!$D$98:$N$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.9575893304959511E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9710276467803656E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.4745476024013993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.1561816865042278E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.5457968094322982E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.4313027235597389E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.3292923748767809E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.5312454620541649E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.6099579390955086E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.9367202609423373E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,9 +845,9 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$D$99:$O$99</c:f>
+              <c:f>'Sensitivity Analysis'!$D$99:$N$99</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>ProcessorActive</c:v>
                 </c:pt>
@@ -791,33 +855,30 @@
                   <c:v>ProcessorIdle</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ProcessorOff</c:v>
+                  <c:v>ProcessorSleep</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>LEDOn</c:v>
+                  <c:v>LED100%</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>LED10%</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>SensorOn</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>SensorIdle</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>SensorOff</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>DisplayOn</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>DisplayOff</c:v>
+                  <c:v>RadioStandby</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>RadioStandby</c:v>
+                  <c:v>RadioTX</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>RadioTX</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>RadioRX</c:v>
                 </c:pt>
               </c:strCache>
@@ -825,45 +886,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sensitivity Analysis'!$D$98:$O$98</c:f>
+              <c:f>'Sensitivity Analysis'!$D$98:$N$98</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.9575893304959511E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9710276467803656E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.4745476024013993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.1561816865042278E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.5457968094322982E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.4313027235597389E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.3292923748767809E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.5312454620541649E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.6099579390955086E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.9367202609423373E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,10 +1084,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120714</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164374</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3086100" cy="638175"/>
     <xdr:sp macro="" textlink="">
@@ -1045,8 +1103,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3723525" y="2928400"/>
-          <a:ext cx="3064200" cy="615600"/>
+          <a:off x="11144314" y="773974"/>
+          <a:ext cx="3086100" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1422,10 +1480,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Q42"/>
+  <dimension ref="A2:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1435,27 +1493,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="A2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1465,18 +1523,18 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23"/>
       <c r="B5" s="21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -1484,44 +1542,44 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1529,76 +1587,76 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="29"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="33">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27">
         <v>154.25</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="34">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
         <v>0.03</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="28">
         <v>0.2</v>
       </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="33">
+        <v>5</v>
+      </c>
+      <c r="B10" s="27">
         <v>2.5350000000000001</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
         <v>0.97</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="28">
         <v>0.8</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="33">
+        <v>6</v>
+      </c>
+      <c r="B11" s="27">
         <v>0.89</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="34">
+      <c r="E11" s="28">
         <v>1</v>
       </c>
-      <c r="F11" s="34">
-        <v>0</v>
-      </c>
-      <c r="G11" s="34">
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
         <v>0</v>
       </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
@@ -1609,79 +1667,81 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="18"/>
+        <v>49</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="33">
+        <v>51</v>
+      </c>
+      <c r="B15" s="27">
         <v>195</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="34">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34">
-        <v>0</v>
-      </c>
-      <c r="G15" s="34">
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
         <v>0.3</v>
       </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="33">
+        <v>50</v>
+      </c>
+      <c r="B16" s="27">
         <v>19.5</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="34">
-        <v>0</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
         <v>1</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="28">
         <v>0.7</v>
       </c>
       <c r="H16" s="18"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23"/>
@@ -1692,11 +1752,11 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
@@ -1705,171 +1765,175 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="29"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="29"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="33">
+        <v>8</v>
+      </c>
+      <c r="B20" s="27">
         <v>5</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="34">
-        <v>0</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
         <v>0.03</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="28">
         <v>0.15</v>
       </c>
       <c r="H20" s="18"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="33">
+        <v>5</v>
+      </c>
+      <c r="B21" s="27">
         <v>2.5</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="34">
-        <v>0</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
         <v>0.97</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="28">
         <v>0.85</v>
       </c>
       <c r="H21" s="18"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="33">
+        <v>10</v>
+      </c>
+      <c r="B22" s="27">
         <v>0</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" s="18"/>
-      <c r="E22" s="34">
+      <c r="E22" s="28">
         <v>1</v>
       </c>
-      <c r="F22" s="34">
-        <v>0</v>
-      </c>
-      <c r="G22" s="34">
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
         <v>0</v>
       </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="21"/>
       <c r="D23" s="18"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="33">
+        <v>8</v>
+      </c>
+      <c r="B24" s="27">
         <v>7.5</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24" s="18"/>
-      <c r="E24" s="34">
-        <v>0</v>
-      </c>
-      <c r="F24" s="34">
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28">
         <v>0.03</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="28">
         <v>0.15</v>
       </c>
       <c r="H24" s="18"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="33">
+        <v>5</v>
+      </c>
+      <c r="B25" s="27">
         <v>3</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28">
         <v>0.97</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="28">
         <v>0.85</v>
       </c>
       <c r="H25" s="18"/>
-      <c r="I25" s="29"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="33">
+        <v>10</v>
+      </c>
+      <c r="B26" s="27">
         <v>0</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="34">
+      <c r="E26" s="28">
         <v>1</v>
       </c>
-      <c r="F26" s="34">
-        <v>0</v>
-      </c>
-      <c r="G26" s="34">
+      <c r="F26" s="28">
+        <v>0</v>
+      </c>
+      <c r="G26" s="28">
         <v>0</v>
       </c>
       <c r="H26" s="18"/>
-      <c r="I26" s="29"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="23"/>
@@ -1880,11 +1944,11 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="29"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="20" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -1893,7 +1957,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="29"/>
+      <c r="I28" s="25"/>
       <c r="K28" s="1"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -1904,164 +1968,164 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="35">
+        <v>11</v>
+      </c>
+      <c r="B29" s="29">
         <v>300</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="34">
-        <v>0</v>
-      </c>
-      <c r="F29" s="34">
-        <v>0</v>
-      </c>
-      <c r="G29" s="34">
+      <c r="E29" s="28">
+        <v>0</v>
+      </c>
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
         <v>0</v>
       </c>
       <c r="H29" s="18"/>
-      <c r="I29" s="29"/>
+      <c r="I29" s="25"/>
       <c r="K29" s="6"/>
       <c r="L29" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="33">
+        <v>15</v>
+      </c>
+      <c r="B30" s="27">
         <v>6.6</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="34">
+      <c r="E30" s="28">
         <v>1</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="28">
         <v>0.8</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="28">
         <v>0.6</v>
       </c>
       <c r="H30" s="18"/>
-      <c r="I30" s="29"/>
+      <c r="I30" s="25"/>
       <c r="K30" s="6"/>
       <c r="L30" s="9" t="str">
         <f>E6</f>
-        <v>"off"</v>
+        <v>Sleep</v>
       </c>
       <c r="M30" s="9">
         <f>SUMPRODUCT(B9:B32, E9:E32)</f>
         <v>7.4899999999999993</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" ref="O30:O32" si="0">$M$35/M30</f>
-        <v>146.71562082777038</v>
+        <f t="shared" ref="O30" si="0">$M$35/M30</f>
+        <v>293.43124165554076</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="33">
+        <v>17</v>
+      </c>
+      <c r="B31" s="27">
         <v>240</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" s="18"/>
-      <c r="E31" s="34">
-        <v>0</v>
-      </c>
-      <c r="F31" s="34">
+      <c r="E31" s="28">
+        <v>0</v>
+      </c>
+      <c r="F31" s="28">
         <v>0.1</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="28">
         <v>0.25</v>
       </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="29"/>
+      <c r="I31" s="25"/>
       <c r="K31" s="6"/>
       <c r="L31" s="9" t="str">
         <f>F6</f>
-        <v>"sensing"</v>
+        <v>Monitoring</v>
       </c>
       <c r="M31" s="9">
         <f>SUMPRODUCT(B9:B32, F9:F32)</f>
         <v>82.576449999999994</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O31" s="10">
         <f>$M$35/M31</f>
-        <v>13.307668227442571</v>
+        <v>26.615336454885142</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="33">
+        <v>18</v>
+      </c>
+      <c r="B32" s="27">
         <v>210</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="34">
-        <v>0</v>
-      </c>
-      <c r="F32" s="34">
+      <c r="E32" s="28">
+        <v>0</v>
+      </c>
+      <c r="F32" s="28">
         <v>0.1</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="28">
         <v>0.15</v>
       </c>
       <c r="H32" s="18"/>
-      <c r="I32" s="29"/>
+      <c r="I32" s="25"/>
       <c r="K32" s="6"/>
       <c r="L32" s="9" t="str">
         <f>G6</f>
-        <v>"interactive"</v>
+        <v>Detecting</v>
       </c>
       <c r="M32" s="9">
         <f>SUMPRODUCT(B9:B32, G9:G32)</f>
         <v>207.03799999999998</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O32" s="10">
         <f>$M$35/M32</f>
-        <v>5.307721287879521</v>
+        <v>10.615442575759042</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q32" s="5"/>
     </row>
@@ -2074,7 +2138,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
-      <c r="I33" s="29"/>
+      <c r="I33" s="25"/>
       <c r="K33" s="6"/>
       <c r="Q33" s="5"/>
     </row>
@@ -2083,28 +2147,28 @@
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="35">
+      <c r="E34" s="29">
         <v>16</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="29">
         <v>6.5</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="29">
         <v>1.5</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="29"/>
+        <v>19</v>
+      </c>
+      <c r="I34" s="25"/>
       <c r="K34" s="6"/>
       <c r="L34" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -2113,70 +2177,70 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
-      <c r="I35" s="29"/>
+      <c r="I35" s="25"/>
       <c r="K35" s="6"/>
       <c r="M35" s="7">
         <f>B36*B37*B38</f>
-        <v>1098.9000000000001</v>
+        <v>2197.8000000000002</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="33">
-        <v>300</v>
+        <v>23</v>
+      </c>
+      <c r="B36" s="27">
+        <v>600</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="29"/>
+      <c r="I36" s="25"/>
       <c r="K36" s="6"/>
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="33">
+        <v>25</v>
+      </c>
+      <c r="B37" s="27">
         <v>3.7</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="25"/>
       <c r="K37" s="6"/>
       <c r="L37" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M37" s="12">
         <f>M35/(E34*M30+F34*M31+G34*M32)</f>
-        <v>1.1362321280154868</v>
+        <v>2.2724642560309736</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="34">
+        <v>29</v>
+      </c>
+      <c r="B38" s="28">
         <v>0.99</v>
       </c>
       <c r="C38" s="18"/>
@@ -2185,30 +2249,30 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="29"/>
+      <c r="I38" s="25"/>
       <c r="K38" s="6"/>
       <c r="L38" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M38" s="12">
         <f>M37*24</f>
-        <v>27.269571072371683</v>
+        <v>54.539142144743366</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
       <c r="K39" s="13"/>
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
@@ -2217,20 +2281,181 @@
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
     </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A42" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A42:I55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{A725EE7F-EEF7-8240-8A92-15545ACD6DEC}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{D33AA9A0-041B-B34E-97FA-DAC2E77BD25A}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{EF0021F9-E4D2-2240-BA2F-F0E4739DC3B0}"/>
+    <hyperlink ref="B23" r:id="rId4" xr:uid="{1325AD3C-54EB-A14B-8FDB-5DD48B2CAF01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2239,20 +2464,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A50:W118"/>
+  <dimension ref="A50:V118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T79" sqref="T79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="str">
         <f>'System Parameters'!A4</f>
         <v>System Parameters (defined by hardware)</v>
@@ -2269,24 +2494,24 @@
         <f>'System Parameters'!D4</f>
         <v>0</v>
       </c>
-      <c r="T52" s="7" t="str">
+      <c r="S52" s="7" t="str">
         <f>'System Parameters'!E4</f>
         <v>Profiles (usage of each component mode - defined by software and usage)</v>
       </c>
+      <c r="T52" s="7">
+        <f>'System Parameters'!F4</f>
+        <v>0</v>
+      </c>
       <c r="U52" s="7">
-        <f>'System Parameters'!F4</f>
+        <f>'System Parameters'!G4</f>
         <v>0</v>
       </c>
       <c r="V52" s="7">
-        <f>'System Parameters'!G4</f>
-        <v>0</v>
-      </c>
-      <c r="W52" s="7">
         <f>'System Parameters'!H4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <f>'System Parameters'!A5</f>
         <v>0</v>
@@ -2303,24 +2528,24 @@
         <f>'System Parameters'!D5</f>
         <v>0</v>
       </c>
+      <c r="S53" s="7">
+        <f>'System Parameters'!E5</f>
+        <v>0</v>
+      </c>
       <c r="T53" s="7">
-        <f>'System Parameters'!E5</f>
+        <f>'System Parameters'!F5</f>
         <v>0</v>
       </c>
       <c r="U53" s="7">
-        <f>'System Parameters'!F5</f>
+        <f>'System Parameters'!G5</f>
         <v>0</v>
       </c>
       <c r="V53" s="7">
-        <f>'System Parameters'!G5</f>
-        <v>0</v>
-      </c>
-      <c r="W53" s="7">
         <f>'System Parameters'!H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <f>'System Parameters'!A6</f>
         <v>0</v>
@@ -2337,24 +2562,24 @@
         <f>'System Parameters'!D6</f>
         <v>0</v>
       </c>
+      <c r="S54" s="7" t="str">
+        <f>'System Parameters'!E6</f>
+        <v>Sleep</v>
+      </c>
       <c r="T54" s="7" t="str">
-        <f>'System Parameters'!E6</f>
-        <v>"off"</v>
+        <f>'System Parameters'!F6</f>
+        <v>Monitoring</v>
       </c>
       <c r="U54" s="7" t="str">
-        <f>'System Parameters'!F6</f>
-        <v>"sensing"</v>
-      </c>
-      <c r="V54" s="7" t="str">
         <f>'System Parameters'!G6</f>
-        <v>"interactive"</v>
-      </c>
-      <c r="W54" s="7">
+        <v>Detecting</v>
+      </c>
+      <c r="V54" s="7">
         <f>'System Parameters'!H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="str">
         <f>'System Parameters'!A7</f>
         <v>Processor</v>
@@ -2371,24 +2596,24 @@
         <f>'System Parameters'!D7</f>
         <v>0</v>
       </c>
+      <c r="S55" s="7">
+        <f>'System Parameters'!E7</f>
+        <v>0</v>
+      </c>
       <c r="T55" s="7">
-        <f>'System Parameters'!E7</f>
+        <f>'System Parameters'!F7</f>
         <v>0</v>
       </c>
       <c r="U55" s="7">
-        <f>'System Parameters'!F7</f>
+        <f>'System Parameters'!G7</f>
         <v>0</v>
       </c>
       <c r="V55" s="7">
-        <f>'System Parameters'!G7</f>
-        <v>0</v>
-      </c>
-      <c r="W55" s="7">
         <f>'System Parameters'!H7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="str">
         <f>'System Parameters'!A9</f>
         <v>Active</v>
@@ -2406,7 +2631,7 @@
         <v>138.82500000000002</v>
       </c>
       <c r="E56" s="8">
-        <f t="shared" ref="E56:O56" si="0">$B56</f>
+        <f t="shared" ref="E56:N56" si="0">$B56</f>
         <v>154.25</v>
       </c>
       <c r="F56" s="8">
@@ -2445,28 +2670,24 @@
         <f t="shared" si="0"/>
         <v>154.25</v>
       </c>
-      <c r="O56" s="8">
-        <f t="shared" si="0"/>
-        <v>154.25</v>
+      <c r="S56" s="16">
+        <f>'System Parameters'!E9</f>
+        <v>0</v>
       </c>
       <c r="T56" s="16">
-        <f>'System Parameters'!E9</f>
-        <v>0</v>
-      </c>
-      <c r="U56" s="16">
         <f>'System Parameters'!F9</f>
         <v>0.03</v>
       </c>
-      <c r="V56" s="16">
+      <c r="U56" s="16">
         <f>'System Parameters'!G9</f>
         <v>0.2</v>
       </c>
-      <c r="W56" s="7">
+      <c r="V56" s="7">
         <f>'System Parameters'!H9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="str">
         <f>'System Parameters'!A10</f>
         <v>Idle</v>
@@ -2480,7 +2701,7 @@
         <v>mW</v>
       </c>
       <c r="D57" s="8">
-        <f t="shared" ref="D57:D76" si="1">$B57</f>
+        <f t="shared" ref="D57:D79" si="1">$B57</f>
         <v>2.5350000000000001</v>
       </c>
       <c r="E57" s="7">
@@ -2488,7 +2709,7 @@
         <v>2.2815000000000003</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" ref="F57:O57" si="2">$B57</f>
+        <f t="shared" ref="F57:N57" si="2">$B57</f>
         <v>2.5350000000000001</v>
       </c>
       <c r="G57" s="8">
@@ -2523,28 +2744,24 @@
         <f t="shared" si="2"/>
         <v>2.5350000000000001</v>
       </c>
-      <c r="O57" s="8">
-        <f t="shared" si="2"/>
-        <v>2.5350000000000001</v>
+      <c r="S57" s="16">
+        <f>'System Parameters'!E10</f>
+        <v>0</v>
       </c>
       <c r="T57" s="16">
-        <f>'System Parameters'!E10</f>
-        <v>0</v>
-      </c>
-      <c r="U57" s="16">
         <f>'System Parameters'!F10</f>
         <v>0.97</v>
       </c>
-      <c r="V57" s="16">
+      <c r="U57" s="16">
         <f>'System Parameters'!G10</f>
         <v>0.8</v>
       </c>
-      <c r="W57" s="7">
+      <c r="V57" s="7">
         <f>'System Parameters'!H10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="str">
         <f>'System Parameters'!A11</f>
         <v>Sleep</v>
@@ -2562,7 +2779,7 @@
         <v>0.89</v>
       </c>
       <c r="E58" s="8">
-        <f t="shared" ref="E58:E76" si="3">$B58</f>
+        <f t="shared" ref="E58:E79" si="3">$B58</f>
         <v>0.89</v>
       </c>
       <c r="F58" s="7">
@@ -2570,7 +2787,7 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" ref="G58:O58" si="4">$B58</f>
+        <f t="shared" ref="G58:N58" si="4">$B58</f>
         <v>0.89</v>
       </c>
       <c r="H58" s="8">
@@ -2601,28 +2818,24 @@
         <f t="shared" si="4"/>
         <v>0.89</v>
       </c>
-      <c r="O58" s="8">
-        <f t="shared" si="4"/>
-        <v>0.89</v>
-      </c>
-      <c r="T58" s="16">
+      <c r="S58" s="16">
         <f>'System Parameters'!E11</f>
         <v>1</v>
       </c>
+      <c r="T58" s="16">
+        <f>'System Parameters'!F11</f>
+        <v>0</v>
+      </c>
       <c r="U58" s="16">
-        <f>'System Parameters'!F11</f>
-        <v>0</v>
-      </c>
-      <c r="V58" s="16">
         <f>'System Parameters'!G11</f>
         <v>0</v>
       </c>
-      <c r="W58" s="7">
+      <c r="V58" s="7">
         <f>'System Parameters'!H11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <f>'System Parameters'!A12</f>
         <v>0</v>
@@ -2644,11 +2857,11 @@
         <v>0</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" ref="F59:O59" si="5">$B59</f>
+        <f t="shared" ref="F59:N59" si="5">$B59</f>
         <v>0</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="5"/>
+        <f>$B59</f>
         <v>0</v>
       </c>
       <c r="H59" s="7">
@@ -2679,28 +2892,24 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O59" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="7">
+      <c r="S59" s="16">
         <f>'System Parameters'!E12</f>
         <v>0</v>
       </c>
-      <c r="U59" s="7">
+      <c r="T59" s="16">
         <f>'System Parameters'!F12</f>
         <v>0</v>
       </c>
+      <c r="U59" s="16">
+        <f>'System Parameters'!G12</f>
+        <v>0</v>
+      </c>
       <c r="V59" s="7">
-        <f>'System Parameters'!G12</f>
-        <v>0</v>
-      </c>
-      <c r="W59" s="7">
         <f>'System Parameters'!H12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="str">
         <f>'System Parameters'!A13</f>
         <v>LED</v>
@@ -2722,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" ref="F60:O60" si="6">$B60</f>
+        <f t="shared" ref="F60:N60" si="6">$B60</f>
         <v>0</v>
       </c>
       <c r="G60" s="7">
@@ -2757,1590 +2966,1567 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O60" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T60" s="7">
+      <c r="S60" s="16">
         <f>'System Parameters'!E13</f>
         <v>0</v>
       </c>
-      <c r="U60" s="7">
+      <c r="T60" s="16">
         <f>'System Parameters'!F13</f>
         <v>0</v>
       </c>
+      <c r="U60" s="16">
+        <f>'System Parameters'!G13</f>
+        <v>0</v>
+      </c>
       <c r="V60" s="7">
-        <f>'System Parameters'!G13</f>
-        <v>0</v>
-      </c>
-      <c r="W60" s="7">
         <f>'System Parameters'!H13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7" t="str">
+        <f>'System Parameters'!A14</f>
+        <v>NeoPixel - SK6812RGBW</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7">
+        <f>'System Parameters'!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" ref="F61:F79" si="7">$B61</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <f>$B61</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="8">
+        <f t="shared" ref="H61:N61" si="8">$B61</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="16">
+        <f>'System Parameters'!E14</f>
+        <v>0</v>
+      </c>
+      <c r="T61" s="16">
+        <f>'System Parameters'!F14</f>
+        <v>0</v>
+      </c>
+      <c r="U61" s="16">
+        <f>'System Parameters'!G14</f>
+        <v>0</v>
+      </c>
+      <c r="V61" s="7">
+        <f>'System Parameters'!H15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="str">
         <f>'System Parameters'!A15</f>
         <v>Full bright</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B62" s="7">
         <f>'System Parameters'!B15</f>
         <v>195</v>
       </c>
-      <c r="C61" s="7" t="str">
+      <c r="C62" s="7" t="str">
         <f>'System Parameters'!C15</f>
         <v>mW</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E62" s="8">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="F61" s="8">
-        <f t="shared" ref="F61:F76" si="7">$B61</f>
+      <c r="F62" s="8">
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
-      <c r="G61" s="7">
-        <f>$B61*0.9</f>
+      <c r="G62" s="8">
+        <f>$B62*0.9</f>
         <v>175.5</v>
       </c>
-      <c r="H61" s="8">
-        <f t="shared" ref="H61:O61" si="8">$B61</f>
+      <c r="H62" s="8">
+        <f t="shared" ref="H62:N62" si="9">$B62</f>
         <v>195</v>
       </c>
-      <c r="I61" s="8">
-        <f t="shared" si="8"/>
+      <c r="I62" s="8">
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="J61" s="8">
-        <f t="shared" si="8"/>
+      <c r="J62" s="8">
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="K61" s="8">
-        <f t="shared" si="8"/>
+      <c r="K62" s="8">
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="L61" s="8">
-        <f t="shared" si="8"/>
+      <c r="L62" s="8">
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="M61" s="8">
-        <f t="shared" si="8"/>
+      <c r="M62" s="8">
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="N61" s="8">
-        <f t="shared" si="8"/>
+      <c r="N62" s="8">
+        <f t="shared" si="9"/>
         <v>195</v>
       </c>
-      <c r="O61" s="8">
-        <f t="shared" si="8"/>
-        <v>195</v>
-      </c>
-      <c r="T61" s="16">
+      <c r="S62" s="16">
         <f>'System Parameters'!E15</f>
         <v>0</v>
       </c>
-      <c r="U61" s="16">
+      <c r="T62" s="16">
         <f>'System Parameters'!F15</f>
         <v>0</v>
       </c>
-      <c r="V61" s="16">
+      <c r="U62" s="16">
         <f>'System Parameters'!G15</f>
         <v>0.3</v>
       </c>
-      <c r="W61" s="7">
-        <f>'System Parameters'!H15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B62" s="8" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C62" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D62" s="8" t="e">
+      <c r="V62" s="7">
+        <f>'System Parameters'!H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="str">
+        <f>'System Parameters'!A16</f>
+        <v>Dark(10%)</v>
+      </c>
+      <c r="B63" s="7">
+        <f>'System Parameters'!B16</f>
+        <v>19.5</v>
+      </c>
+      <c r="C63" s="7" t="str">
+        <f>'System Parameters'!C16</f>
+        <v>mW</v>
+      </c>
+      <c r="D63" s="8">
+        <f>$B63</f>
+        <v>19.5</v>
+      </c>
+      <c r="E63" s="8">
+        <f>$B63</f>
+        <v>19.5</v>
+      </c>
+      <c r="F63" s="8">
+        <f>$B63</f>
+        <v>19.5</v>
+      </c>
+      <c r="G63" s="8">
+        <f>$B63</f>
+        <v>19.5</v>
+      </c>
+      <c r="H63" s="8">
+        <f>$B63*0.9</f>
+        <v>17.55</v>
+      </c>
+      <c r="I63" s="8">
+        <f t="shared" ref="I63:N63" si="10">$B63</f>
+        <v>19.5</v>
+      </c>
+      <c r="J63" s="8">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="K63" s="8">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="M63" s="8">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="N63" s="8">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="S63" s="16">
+        <f>'System Parameters'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="T63" s="16">
+        <f>'System Parameters'!F16</f>
+        <v>1</v>
+      </c>
+      <c r="U63" s="16">
+        <f>'System Parameters'!G16</f>
+        <v>0.7</v>
+      </c>
+      <c r="V63" s="7">
+        <f>'System Parameters'!H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
+        <f>'System Parameters'!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B64" s="7">
+        <f>'System Parameters'!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="7">
+        <f>'System Parameters'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="8">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E62" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="E64" s="8">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F62" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8">
         <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G62" s="8" t="e">
-        <f t="shared" ref="G62:O62" si="9">$B62</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H62" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I62" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J62" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K62" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L62" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M62" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N62" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O62" s="8" t="e">
-        <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T62" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U62" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V62" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W62" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B63" s="8" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C63" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D63" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E63" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F63" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G63" s="8" t="e">
-        <f t="shared" ref="G63:O63" si="10">$B63</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H63" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I63" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J63" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K63" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L63" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M63" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N63" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O63" s="8" t="e">
-        <f t="shared" si="10"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T63" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U63" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V63" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W63" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G64" s="8">
+        <f t="shared" ref="G64:N64" si="11">$B64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="16">
+        <f>'System Parameters'!E17</f>
+        <v>0</v>
+      </c>
+      <c r="T64" s="16">
+        <f>'System Parameters'!F17</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="16">
+        <f>'System Parameters'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="V64" s="7">
+        <f>'System Parameters'!H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="7" t="str">
         <f>'System Parameters'!A18</f>
         <v>Sensor</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B65" s="7">
         <f>'System Parameters'!B18</f>
         <v>0</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C65" s="7">
         <f>'System Parameters'!C18</f>
         <v>0</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F65" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G64" s="8">
-        <f t="shared" ref="G64:O64" si="11">$B64</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T64" s="7">
+      <c r="G65" s="8">
+        <f t="shared" ref="G65:G79" si="12">$B65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <f>$B65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f t="shared" ref="I65:N65" si="13">$B65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="16">
         <f>'System Parameters'!E18</f>
         <v>0</v>
       </c>
-      <c r="U64" s="7">
+      <c r="T65" s="16">
         <f>'System Parameters'!F18</f>
         <v>0</v>
       </c>
-      <c r="V64" s="7">
+      <c r="U65" s="16">
         <f>'System Parameters'!G18</f>
         <v>0</v>
       </c>
-      <c r="W64" s="7">
-        <f>'System Parameters'!H18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="str">
+      <c r="V65" s="7">
+        <f>'System Parameters'!H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="str">
+        <f>'System Parameters'!A19</f>
+        <v>TAL221</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7">
+        <f>'System Parameters'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="8">
+        <f t="shared" ref="H66:H79" si="14">$B66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <f>$B66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="8">
+        <f t="shared" ref="J66:N66" si="15">$B66</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="16">
+        <f>'System Parameters'!E19</f>
+        <v>0</v>
+      </c>
+      <c r="T66" s="16">
+        <f>'System Parameters'!F19</f>
+        <v>0</v>
+      </c>
+      <c r="U66" s="16">
+        <f>'System Parameters'!G19</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="7">
+        <f>'System Parameters'!H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="str">
         <f>'System Parameters'!A20</f>
         <v>On</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B67" s="7">
         <f>'System Parameters'!B20</f>
         <v>5</v>
       </c>
-      <c r="C65" s="7" t="str">
+      <c r="C67" s="7" t="str">
         <f>'System Parameters'!C20</f>
         <v>mW</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D67" s="8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E67" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F65" s="8">
-        <f t="shared" si="7"/>
+      <c r="F67" s="8">
+        <f>$B67</f>
         <v>5</v>
       </c>
-      <c r="G65" s="8">
-        <f t="shared" ref="G65:G76" si="12">$B65</f>
+      <c r="G67" s="8">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="H65" s="7">
-        <f>$B65*0.9</f>
+      <c r="H67" s="8">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="I67" s="8">
+        <f>$B67*0.9</f>
         <v>4.5</v>
       </c>
-      <c r="I65" s="8">
-        <f t="shared" ref="I65:O65" si="13">$B65</f>
+      <c r="J67" s="7">
+        <f>$B67</f>
         <v>5</v>
       </c>
-      <c r="J65" s="8">
-        <f t="shared" si="13"/>
+      <c r="K67" s="8">
+        <f t="shared" ref="K67:N67" si="16">$B67</f>
         <v>5</v>
       </c>
-      <c r="K65" s="8">
-        <f t="shared" si="13"/>
+      <c r="L67" s="8">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="L65" s="8">
-        <f t="shared" si="13"/>
+      <c r="M67" s="8">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="M65" s="8">
-        <f t="shared" si="13"/>
+      <c r="N67" s="8">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="N65" s="8">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O65" s="8">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="T65" s="16">
+      <c r="S67" s="16">
         <f>'System Parameters'!E20</f>
         <v>0</v>
       </c>
-      <c r="U65" s="16">
+      <c r="T67" s="16">
         <f>'System Parameters'!F20</f>
         <v>0.03</v>
       </c>
-      <c r="V65" s="16">
+      <c r="U67" s="16">
         <f>'System Parameters'!G20</f>
         <v>0.15</v>
       </c>
-      <c r="W65" s="7">
-        <f>'System Parameters'!H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="str">
+      <c r="V67" s="7">
+        <f>'System Parameters'!H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="7" t="str">
         <f>'System Parameters'!A21</f>
         <v>Idle</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B68" s="7">
         <f>'System Parameters'!B21</f>
         <v>2.5</v>
       </c>
-      <c r="C66" s="7" t="str">
+      <c r="C68" s="7" t="str">
         <f>'System Parameters'!C21</f>
         <v>mW</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D68" s="8">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E68" s="8">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F68" s="8">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G68" s="8">
         <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
-      <c r="H66" s="8">
-        <f t="shared" ref="H66:H76" si="14">$B66</f>
+      <c r="H68" s="8">
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
-      <c r="I66" s="7">
-        <f>$B66*0.9</f>
+      <c r="I68" s="8">
+        <f t="shared" ref="I68:I79" si="17">$B68</f>
+        <v>2.5</v>
+      </c>
+      <c r="J68" s="8">
+        <f>$B68*0.9</f>
         <v>2.25</v>
       </c>
-      <c r="J66" s="8">
-        <f t="shared" ref="J66:O66" si="15">$B66</f>
+      <c r="K68" s="8">
+        <f t="shared" ref="K68:N68" si="18">$B68</f>
         <v>2.5</v>
       </c>
-      <c r="K66" s="8">
-        <f t="shared" si="15"/>
+      <c r="L68" s="8">
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
-      <c r="L66" s="8">
-        <f t="shared" si="15"/>
+      <c r="M68" s="8">
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
-      <c r="M66" s="8">
-        <f t="shared" si="15"/>
+      <c r="N68" s="8">
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
-      <c r="N66" s="8">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
-      </c>
-      <c r="O66" s="8">
-        <f t="shared" si="15"/>
-        <v>2.5</v>
-      </c>
-      <c r="T66" s="16">
+      <c r="S68" s="16">
         <f>'System Parameters'!E21</f>
         <v>0</v>
       </c>
-      <c r="U66" s="16">
+      <c r="T68" s="16">
         <f>'System Parameters'!F21</f>
         <v>0.97</v>
       </c>
-      <c r="V66" s="16">
+      <c r="U68" s="16">
         <f>'System Parameters'!G21</f>
         <v>0.85</v>
       </c>
-      <c r="W66" s="7">
+      <c r="V68" s="7">
         <f>'System Parameters'!H21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="str">
+    <row r="69" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="7" t="str">
         <f>'System Parameters'!A22</f>
         <v>Off</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B69" s="7">
         <f>'System Parameters'!B22</f>
         <v>0</v>
       </c>
-      <c r="C67" s="7" t="str">
+      <c r="C69" s="7" t="str">
         <f>'System Parameters'!C22</f>
         <v>mW</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D69" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E69" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F69" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G69" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H69" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I67" s="8">
-        <f t="shared" ref="I67:I76" si="16">$B67</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="7">
-        <f>$B67*0.9</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="8">
-        <f t="shared" ref="K67:O67" si="17">$B67</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="8">
+      <c r="I69" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M67" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T67" s="16">
+      <c r="J69" s="8">
+        <f t="shared" ref="J69:N69" si="19">$B69</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="16">
         <f>'System Parameters'!E22</f>
         <v>1</v>
       </c>
-      <c r="U67" s="16">
+      <c r="T69" s="16">
         <f>'System Parameters'!F22</f>
         <v>0</v>
       </c>
-      <c r="V67" s="16">
+      <c r="U69" s="16">
         <f>'System Parameters'!G22</f>
         <v>0</v>
       </c>
-      <c r="W67" s="7">
+      <c r="V69" s="7">
         <f>'System Parameters'!H22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
+    <row r="70" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="7" t="str">
+        <f>'System Parameters'!A23</f>
+        <v>HX711</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7">
+        <f>'System Parameters'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="8">
+        <f t="shared" ref="J70:J79" si="20">$B70</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <f>$B70</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="8">
+        <f t="shared" ref="L70:N70" si="21">$B70</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="16">
+        <f>'System Parameters'!E23</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="16">
+        <f>'System Parameters'!F23</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="16">
+        <f>'System Parameters'!G23</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="7">
+        <f>'System Parameters'!H23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="7" t="str">
+        <f>'System Parameters'!A24</f>
+        <v>On</v>
+      </c>
+      <c r="B71" s="7">
+        <f>'System Parameters'!B24</f>
+        <v>7.5</v>
+      </c>
+      <c r="C71" s="7" t="str">
+        <f>'System Parameters'!C24</f>
+        <v>mW</v>
+      </c>
+      <c r="D71" s="8">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="E71" s="8">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" si="7"/>
+        <v>7.5</v>
+      </c>
+      <c r="G71" s="8">
+        <f t="shared" si="12"/>
+        <v>7.5</v>
+      </c>
+      <c r="H71" s="8">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="I71" s="8">
+        <f>$B71*0.9</f>
+        <v>6.75</v>
+      </c>
+      <c r="J71" s="8">
+        <f t="shared" si="20"/>
+        <v>7.5</v>
+      </c>
+      <c r="K71" s="8">
+        <f t="shared" ref="K71:L79" si="22">$B71</f>
+        <v>7.5</v>
+      </c>
+      <c r="L71" s="8">
+        <f t="shared" si="22"/>
+        <v>7.5</v>
+      </c>
+      <c r="M71" s="8">
+        <f t="shared" ref="M71:N71" si="23">$B71</f>
+        <v>7.5</v>
+      </c>
+      <c r="N71" s="8">
+        <f t="shared" si="23"/>
+        <v>7.5</v>
+      </c>
+      <c r="S71" s="16">
+        <f>'System Parameters'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="T71" s="16">
+        <f>'System Parameters'!F24</f>
+        <v>0.03</v>
+      </c>
+      <c r="U71" s="16">
+        <f>'System Parameters'!G24</f>
+        <v>0.15</v>
+      </c>
+      <c r="V71" s="7">
+        <f>'System Parameters'!H24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="str">
+        <f>'System Parameters'!A25</f>
+        <v>Idle</v>
+      </c>
+      <c r="B72" s="7">
+        <f>'System Parameters'!B25</f>
+        <v>3</v>
+      </c>
+      <c r="C72" s="7" t="str">
+        <f>'System Parameters'!C25</f>
+        <v>mW</v>
+      </c>
+      <c r="D72" s="7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="J72" s="7">
+        <f>$B72*0.9</f>
+        <v>2.7</v>
+      </c>
+      <c r="K72" s="7">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="L72" s="7">
+        <f t="shared" ref="L72:N72" si="24">$B72</f>
+        <v>3</v>
+      </c>
+      <c r="M72" s="7">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="N72" s="7">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="S72" s="16">
+        <f>'System Parameters'!E25</f>
+        <v>0</v>
+      </c>
+      <c r="T72" s="16">
+        <f>'System Parameters'!F25</f>
+        <v>0.97</v>
+      </c>
+      <c r="U72" s="16">
+        <f>'System Parameters'!G25</f>
+        <v>0.85</v>
+      </c>
+      <c r="V72" s="7">
+        <f>'System Parameters'!H25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" s="7" t="str">
+        <f>'System Parameters'!A26</f>
+        <v>Off</v>
+      </c>
+      <c r="B73" s="7">
+        <f>'System Parameters'!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="7" t="str">
+        <f>'System Parameters'!C26</f>
+        <v>mW</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="7">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="7">
+        <f t="shared" ref="L73:N73" si="25">$B73</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="7">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="16">
+        <f>'System Parameters'!E26</f>
+        <v>1</v>
+      </c>
+      <c r="T73" s="16">
+        <f>'System Parameters'!F26</f>
+        <v>0</v>
+      </c>
+      <c r="U73" s="16">
+        <f>'System Parameters'!G26</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="7">
+        <f>'System Parameters'!H27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
         <f>'System Parameters'!A27</f>
         <v>0</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B74" s="7">
         <f>'System Parameters'!B27</f>
         <v>0</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C74" s="7">
         <f>'System Parameters'!C27</f>
         <v>0</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D74" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E74" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F74" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G74" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H74" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I68" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="8">
-        <f t="shared" ref="J68:O68" si="18">$B68</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N68" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="7">
+      <c r="I74" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="8">
+        <f t="shared" ref="L74:L79" si="26">$B74</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <f>$B74</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="8">
+        <f t="shared" ref="N74" si="27">$B74</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="16">
         <f>'System Parameters'!E27</f>
         <v>0</v>
       </c>
-      <c r="U68" s="7">
+      <c r="T74" s="16">
         <f>'System Parameters'!F27</f>
         <v>0</v>
       </c>
-      <c r="V68" s="7">
+      <c r="U74" s="16">
         <f>'System Parameters'!G27</f>
         <v>0</v>
       </c>
-      <c r="W68" s="7">
-        <f>'System Parameters'!H27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B69" s="8" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C69" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D69" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E69" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F69" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G69" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H69" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I69" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J69" s="8" t="e">
-        <f t="shared" ref="J69:O69" si="19">$B69</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K69" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L69" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M69" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N69" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O69" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T69" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U69" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V69" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W69" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B70" s="8" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C70" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D70" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E70" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F70" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G70" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H70" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I70" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J70" s="8" t="e">
-        <f t="shared" ref="J70:J76" si="20">$B70</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K70" s="7" t="e">
-        <f>$B70*0.9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L70" s="8" t="e">
-        <f t="shared" ref="L70:O70" si="21">$B70</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M70" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N70" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O70" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T70" s="16" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U70" s="16" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V70" s="16" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W70" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B71" s="8" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C71" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D71" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E71" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F71" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G71" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H71" s="8" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I71" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J71" s="8" t="e">
-        <f t="shared" si="20"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K71" s="8" t="e">
-        <f t="shared" ref="K71:K76" si="22">$B71</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L71" s="7" t="e">
-        <f>$B71*0.9</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M71" s="8" t="e">
-        <f t="shared" ref="M71:O71" si="23">$B71</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N71" s="8" t="e">
-        <f t="shared" si="23"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O71" s="8" t="e">
-        <f t="shared" si="23"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T71" s="16" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U71" s="16" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V71" s="16" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W71" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B72" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C72" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D72" s="7" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="E72" s="7" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F72" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G72" s="7" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H72" s="7" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I72" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J72" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K72" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L72" s="7" t="e">
-        <f t="shared" ref="L72:O72" si="24">$B72</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M72" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N72" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O72" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T72" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U72" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V72" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W72" s="7" t="e">
-        <f>'System Parameters'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="str">
+      <c r="V74" s="7">
+        <f>'System Parameters'!H28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A75" s="7" t="str">
         <f>'System Parameters'!A28</f>
         <v>Radio: BLE</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B75" s="7">
         <f>'System Parameters'!B28</f>
         <v>0</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C75" s="7">
         <f>'System Parameters'!C28</f>
         <v>0</v>
       </c>
-      <c r="D73" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="7">
+      <c r="D75" s="8">
+        <f>$B75</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F75" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G75" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H75" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I73" s="7">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="7">
+      <c r="I75" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K75" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L73" s="7">
-        <f t="shared" ref="L73:O73" si="25">$B73</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N73" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T73" s="7">
+      <c r="L75" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="8">
+        <f t="shared" ref="M75:N79" si="28">$B75</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="7">
+        <f>$B75</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="16">
         <f>'System Parameters'!E28</f>
         <v>0</v>
       </c>
-      <c r="U73" s="7">
+      <c r="T75" s="16">
         <f>'System Parameters'!F28</f>
         <v>0</v>
       </c>
-      <c r="V73" s="7">
+      <c r="U75" s="16">
         <f>'System Parameters'!G28</f>
         <v>0</v>
       </c>
-      <c r="W73" s="7">
-        <f>'System Parameters'!H28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="str">
+      <c r="V75" s="7">
+        <f>'System Parameters'!H29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="S76" s="16">
+        <f>'System Parameters'!E29</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="16">
+        <f>'System Parameters'!F29</f>
+        <v>0</v>
+      </c>
+      <c r="U76" s="16">
+        <f>'System Parameters'!G29</f>
+        <v>0</v>
+      </c>
+      <c r="V76" s="7">
+        <f>'System Parameters'!H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A77" s="7" t="str">
         <f>'System Parameters'!A30</f>
         <v>Standby Power</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B77" s="7">
         <f>'System Parameters'!B30</f>
         <v>6.6</v>
       </c>
-      <c r="C74" s="7" t="str">
+      <c r="C77" s="7" t="str">
         <f>'System Parameters'!C30</f>
         <v>mW</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D77" s="8">
         <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E77" s="8">
         <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F77" s="8">
         <f t="shared" si="7"/>
         <v>6.6</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G77" s="8">
         <f t="shared" si="12"/>
         <v>6.6</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H77" s="8">
         <f t="shared" si="14"/>
         <v>6.6</v>
       </c>
-      <c r="I74" s="8">
-        <f t="shared" si="16"/>
+      <c r="I77" s="8">
+        <f t="shared" si="17"/>
         <v>6.6</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J77" s="8">
         <f t="shared" si="20"/>
         <v>6.6</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K77" s="8">
         <f t="shared" si="22"/>
         <v>6.6</v>
       </c>
-      <c r="L74" s="8">
-        <f t="shared" ref="L74:L76" si="26">$B74</f>
+      <c r="L77" s="8">
+        <f>$B77*0.9</f>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="M77" s="8">
+        <f t="shared" si="28"/>
         <v>6.6</v>
       </c>
-      <c r="M74" s="7">
-        <f>$B74*0.9</f>
-        <v>5.9399999999999995</v>
-      </c>
-      <c r="N74" s="8">
-        <f t="shared" ref="N74:O74" si="27">$B74</f>
+      <c r="N77" s="8">
+        <f t="shared" si="28"/>
         <v>6.6</v>
       </c>
-      <c r="O74" s="8">
-        <f t="shared" si="27"/>
-        <v>6.6</v>
-      </c>
-      <c r="T74" s="16">
+      <c r="S77" s="16">
         <f>'System Parameters'!E30</f>
         <v>1</v>
       </c>
-      <c r="U74" s="16">
+      <c r="T77" s="16">
         <f>'System Parameters'!F30</f>
         <v>0.8</v>
       </c>
-      <c r="V74" s="16">
+      <c r="U77" s="16">
         <f>'System Parameters'!G30</f>
         <v>0.6</v>
       </c>
-      <c r="W74" s="7">
-        <f>'System Parameters'!H30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="7" t="str">
+      <c r="V77" s="7">
+        <f>'System Parameters'!H31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A78" s="7" t="str">
         <f>'System Parameters'!A31</f>
         <v>TX Power</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B78" s="7">
         <f>'System Parameters'!B31</f>
         <v>240</v>
       </c>
-      <c r="C75" s="7" t="str">
+      <c r="C78" s="7" t="str">
         <f>'System Parameters'!C31</f>
         <v>mW</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D78" s="8">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E78" s="8">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F78" s="8">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G78" s="8">
         <f t="shared" si="12"/>
         <v>240</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H78" s="8">
         <f t="shared" si="14"/>
         <v>240</v>
       </c>
-      <c r="I75" s="8">
-        <f t="shared" si="16"/>
+      <c r="I78" s="8">
+        <f t="shared" si="17"/>
         <v>240</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J78" s="8">
         <f t="shared" si="20"/>
         <v>240</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K78" s="8">
         <f t="shared" si="22"/>
         <v>240</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L78" s="8">
         <f t="shared" si="26"/>
         <v>240</v>
       </c>
-      <c r="M75" s="8">
-        <f t="shared" ref="M75:M76" si="28">$B75</f>
+      <c r="M78" s="8">
+        <f>$B78*0.9</f>
+        <v>216</v>
+      </c>
+      <c r="N78" s="8">
+        <f t="shared" si="28"/>
         <v>240</v>
       </c>
-      <c r="N75" s="7">
-        <f>$B75*0.9</f>
-        <v>216</v>
-      </c>
-      <c r="O75" s="8">
-        <f>$B75</f>
-        <v>240</v>
-      </c>
-      <c r="T75" s="16">
+      <c r="S78" s="16">
         <f>'System Parameters'!E31</f>
         <v>0</v>
       </c>
-      <c r="U75" s="16">
+      <c r="T78" s="16">
         <f>'System Parameters'!F31</f>
         <v>0.1</v>
       </c>
-      <c r="V75" s="16">
+      <c r="U78" s="16">
         <f>'System Parameters'!G31</f>
         <v>0.25</v>
       </c>
-      <c r="W75" s="7">
-        <f>'System Parameters'!H31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="7" t="str">
+      <c r="V78" s="7">
+        <f>'System Parameters'!H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A79" s="7" t="str">
         <f>'System Parameters'!A32</f>
         <v>RX Power</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B79" s="7">
         <f>'System Parameters'!B32</f>
         <v>210</v>
       </c>
-      <c r="C76" s="7" t="str">
+      <c r="C79" s="7" t="str">
         <f>'System Parameters'!C32</f>
         <v>mW</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D79" s="8">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E79" s="8">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F79" s="8">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G79" s="8">
         <f t="shared" si="12"/>
         <v>210</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H79" s="8">
         <f t="shared" si="14"/>
         <v>210</v>
       </c>
-      <c r="I76" s="8">
-        <f t="shared" si="16"/>
+      <c r="I79" s="8">
+        <f t="shared" si="17"/>
         <v>210</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J79" s="8">
         <f t="shared" si="20"/>
         <v>210</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K79" s="8">
         <f t="shared" si="22"/>
         <v>210</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L79" s="8">
         <f t="shared" si="26"/>
         <v>210</v>
       </c>
-      <c r="M76" s="8">
+      <c r="M79" s="8">
         <f t="shared" si="28"/>
         <v>210</v>
       </c>
-      <c r="N76" s="8">
-        <f>$B76</f>
-        <v>210</v>
-      </c>
-      <c r="O76" s="7">
-        <f>$B76*0.9</f>
+      <c r="N79" s="8">
+        <f>$B79*0.9</f>
         <v>189</v>
       </c>
-      <c r="T76" s="16">
+      <c r="S79" s="16">
         <f>'System Parameters'!E32</f>
         <v>0</v>
       </c>
-      <c r="U76" s="16">
+      <c r="T79" s="16">
         <f>'System Parameters'!F32</f>
         <v>0.1</v>
       </c>
-      <c r="V76" s="16">
+      <c r="U79" s="16">
         <f>'System Parameters'!G32</f>
         <v>0.15</v>
       </c>
-      <c r="W76" s="7">
+      <c r="V79" s="7">
         <f>'System Parameters'!H32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="7">
+    <row r="80" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
         <f>'System Parameters'!A33</f>
         <v>0</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B80" s="7">
         <f>'System Parameters'!B33</f>
         <v>0</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C80" s="7">
         <f>'System Parameters'!C33</f>
         <v>0</v>
       </c>
-      <c r="D77" s="7">
-        <f>'System Parameters'!D33</f>
-        <v>0</v>
-      </c>
-      <c r="T77" s="7">
+      <c r="D80" s="7">
+        <f>'System Parameters'!D36</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="16">
         <f>'System Parameters'!E33</f>
         <v>0</v>
       </c>
-      <c r="U77" s="7">
+      <c r="T80" s="16">
         <f>'System Parameters'!F33</f>
         <v>0</v>
       </c>
-      <c r="V77" s="7">
+      <c r="U80" s="16">
         <f>'System Parameters'!G33</f>
         <v>0</v>
       </c>
-      <c r="W77" s="7">
+      <c r="V80" s="7">
         <f>'System Parameters'!H33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="7">
+    <row r="81" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
         <f>'System Parameters'!A34</f>
         <v>0</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B81" s="7">
         <f>'System Parameters'!B34</f>
         <v>0</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C81" s="7">
         <f>'System Parameters'!C34</f>
         <v>0</v>
       </c>
-      <c r="D78" s="7">
-        <f>'System Parameters'!D34</f>
-        <v>0</v>
-      </c>
-      <c r="T78" s="7">
+      <c r="D81" s="7">
+        <f>'System Parameters'!D37</f>
+        <v>0</v>
+      </c>
+      <c r="S81" s="16">
         <f>'System Parameters'!E34</f>
         <v>16</v>
       </c>
-      <c r="U78" s="7">
+      <c r="T81" s="16">
         <f>'System Parameters'!F34</f>
         <v>6.5</v>
       </c>
-      <c r="V78" s="7">
+      <c r="U81" s="16">
         <f>'System Parameters'!G34</f>
         <v>1.5</v>
       </c>
-      <c r="W78" s="7" t="str">
+      <c r="V81" s="7" t="str">
         <f>'System Parameters'!H34</f>
         <v>hours/day typical usage</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="7" t="str">
+    <row r="82" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A82" s="7" t="str">
         <f>'System Parameters'!A35</f>
         <v>Battery</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B82" s="7">
         <f>'System Parameters'!B35</f>
         <v>0</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C82" s="7">
         <f>'System Parameters'!C35</f>
         <v>0</v>
       </c>
-      <c r="D79" s="7">
-        <f>'System Parameters'!D35</f>
-        <v>0</v>
-      </c>
-      <c r="T79" s="7">
-        <f>'System Parameters'!E35</f>
-        <v>0</v>
-      </c>
-      <c r="U79" s="7">
-        <f>'System Parameters'!F35</f>
-        <v>0</v>
-      </c>
-      <c r="V79" s="7">
-        <f>'System Parameters'!G35</f>
-        <v>0</v>
-      </c>
-      <c r="W79" s="7">
-        <f>'System Parameters'!H35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="7" t="str">
+      <c r="D82" s="7">
+        <f>'System Parameters'!D38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A83" s="7" t="str">
         <f>'System Parameters'!A36</f>
         <v>Capacity</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B83" s="7">
         <f>'System Parameters'!B36</f>
-        <v>300</v>
-      </c>
-      <c r="C80" s="7" t="str">
+        <v>600</v>
+      </c>
+      <c r="C83" s="7" t="str">
         <f>'System Parameters'!C36</f>
         <v>mAh</v>
       </c>
-      <c r="D80" s="7">
-        <f>'System Parameters'!D36</f>
-        <v>0</v>
-      </c>
-      <c r="T80" s="7">
-        <f>'System Parameters'!E36</f>
-        <v>0</v>
-      </c>
-      <c r="U80" s="7">
-        <f>'System Parameters'!F36</f>
-        <v>0</v>
-      </c>
-      <c r="V80" s="7">
-        <f>'System Parameters'!G36</f>
-        <v>0</v>
-      </c>
-      <c r="W80" s="7">
-        <f>'System Parameters'!H36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="7" t="str">
+      <c r="D83" s="7">
+        <f>'System Parameters'!D39</f>
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <f>'System Parameters'!F39</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <f>'System Parameters'!G39</f>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="7">
+        <f>'System Parameters'!H39</f>
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
+        <f>'System Parameters'!I39</f>
+        <v>0</v>
+      </c>
+      <c r="S83" s="7">
+        <f>'System Parameters'!J39</f>
+        <v>0</v>
+      </c>
+      <c r="T83" s="7" t="e">
+        <f t="shared" ref="T83:U83" si="29">#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U83" s="7" t="e">
+        <f t="shared" si="29"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" s="7" t="str">
         <f>'System Parameters'!A37</f>
         <v>Nominal Voltage</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B84" s="7">
         <f>'System Parameters'!B37</f>
         <v>3.7</v>
       </c>
-      <c r="C81" s="7" t="str">
+      <c r="C84" s="7" t="str">
         <f>'System Parameters'!C37</f>
         <v>V</v>
       </c>
-      <c r="D81" s="7">
-        <f>'System Parameters'!D37</f>
-        <v>0</v>
-      </c>
-      <c r="T81" s="7">
-        <f>'System Parameters'!E37</f>
-        <v>0</v>
-      </c>
-      <c r="U81" s="7">
-        <f>'System Parameters'!F37</f>
-        <v>0</v>
-      </c>
-      <c r="V81" s="7">
-        <f>'System Parameters'!G37</f>
-        <v>0</v>
-      </c>
-      <c r="W81" s="7">
-        <f>'System Parameters'!H37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="str">
+      <c r="D84" s="7">
+        <f>'System Parameters'!D40</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <f>'System Parameters'!F40</f>
+        <v>0</v>
+      </c>
+      <c r="P84" s="7">
+        <f>'System Parameters'!G40</f>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="7">
+        <f>'System Parameters'!H40</f>
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <f>'System Parameters'!I40</f>
+        <v>0</v>
+      </c>
+      <c r="S84" s="7">
+        <f>'System Parameters'!J40</f>
+        <v>0</v>
+      </c>
+      <c r="T84" s="7" t="e">
+        <f t="shared" ref="T84:U84" si="30">#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U84" s="7" t="e">
+        <f t="shared" si="30"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" s="7" t="str">
         <f>'System Parameters'!A38</f>
         <v>Regulator Efficiency</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B85" s="7">
         <f>'System Parameters'!B38</f>
         <v>0.99</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C85" s="7">
         <f>'System Parameters'!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D82" s="7">
-        <f>'System Parameters'!D38</f>
-        <v>0</v>
-      </c>
-      <c r="T82" s="7">
-        <f>'System Parameters'!E38</f>
-        <v>0</v>
-      </c>
-      <c r="U82" s="7">
-        <f>'System Parameters'!F38</f>
-        <v>0</v>
-      </c>
-      <c r="V82" s="7">
-        <f>'System Parameters'!G38</f>
-        <v>0</v>
-      </c>
-      <c r="W82" s="7">
-        <f>'System Parameters'!H38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="7">
-        <f>'System Parameters'!A39</f>
-        <v>0</v>
-      </c>
-      <c r="B83" s="7">
-        <f>'System Parameters'!B39</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="7">
-        <f>'System Parameters'!C39</f>
-        <v>0</v>
-      </c>
-      <c r="D83" s="7">
-        <f>'System Parameters'!D39</f>
-        <v>0</v>
-      </c>
-      <c r="O83" s="7">
-        <f>'System Parameters'!E39</f>
-        <v>0</v>
-      </c>
-      <c r="P83" s="7">
-        <f>'System Parameters'!F39</f>
-        <v>0</v>
-      </c>
-      <c r="Q83" s="7">
-        <f>'System Parameters'!G39</f>
-        <v>0</v>
-      </c>
-      <c r="R83" s="7">
-        <f>'System Parameters'!H39</f>
-        <v>0</v>
-      </c>
-      <c r="S83" s="7">
-        <f>'System Parameters'!I39</f>
-        <v>0</v>
-      </c>
-      <c r="T83" s="7">
-        <f>'System Parameters'!J39</f>
-        <v>0</v>
-      </c>
-      <c r="U83" s="7" t="e">
-        <f t="shared" ref="U83:V83" si="29">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V83" s="7" t="e">
-        <f t="shared" si="29"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="7">
-        <f>'System Parameters'!A40</f>
-        <v>0</v>
-      </c>
-      <c r="B84" s="7">
-        <f>'System Parameters'!B40</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="7">
-        <f>'System Parameters'!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D84" s="7">
-        <f>'System Parameters'!D40</f>
-        <v>0</v>
-      </c>
-      <c r="O84" s="7">
-        <f>'System Parameters'!E40</f>
-        <v>0</v>
-      </c>
-      <c r="P84" s="7">
-        <f>'System Parameters'!F40</f>
-        <v>0</v>
-      </c>
-      <c r="Q84" s="7">
-        <f>'System Parameters'!G40</f>
-        <v>0</v>
-      </c>
-      <c r="R84" s="7">
-        <f>'System Parameters'!H40</f>
-        <v>0</v>
-      </c>
-      <c r="S84" s="7">
-        <f>'System Parameters'!I40</f>
-        <v>0</v>
-      </c>
-      <c r="T84" s="7">
-        <f>'System Parameters'!J40</f>
-        <v>0</v>
-      </c>
-      <c r="U84" s="7" t="e">
-        <f t="shared" ref="U84:V84" si="30">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V84" s="7" t="e">
-        <f t="shared" si="30"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="7">
-        <f>'System Parameters'!A41</f>
-        <v>0</v>
-      </c>
-      <c r="B85" s="7">
-        <f>'System Parameters'!K28</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="7">
-        <f>'System Parameters'!L28</f>
         <v>0</v>
       </c>
       <c r="D85" s="7">
@@ -4348,89 +4534,69 @@
         <v>0</v>
       </c>
       <c r="O85" s="7">
-        <f>'System Parameters'!N28</f>
+        <f>'System Parameters'!O28</f>
         <v>0</v>
       </c>
       <c r="P85" s="7">
-        <f>'System Parameters'!O28</f>
+        <f>'System Parameters'!P28</f>
         <v>0</v>
       </c>
       <c r="Q85" s="7">
-        <f>'System Parameters'!P28</f>
+        <f>'System Parameters'!Q28</f>
         <v>0</v>
       </c>
       <c r="R85" s="7">
-        <f>'System Parameters'!Q28</f>
+        <f>'System Parameters'!I41</f>
         <v>0</v>
       </c>
       <c r="S85" s="7">
-        <f>'System Parameters'!I41</f>
-        <v>0</v>
-      </c>
-      <c r="T85" s="7">
         <f>'System Parameters'!J41</f>
         <v>0</v>
       </c>
+      <c r="T85" s="7" t="e">
+        <f t="shared" ref="T85:U85" si="31">#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="U85" s="7" t="e">
-        <f t="shared" ref="U85:V85" si="31">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V85" s="7" t="e">
         <f t="shared" si="31"/>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="7" t="str">
-        <f>'System Parameters'!A42</f>
-        <v xml:space="preserve">REFLECTIONS : WHAT DID YOU LEARN FROM ANALYZING YOUR POWER.  TALK ABOUT SOME POTENTIAL TRADEOFFS. </v>
-      </c>
-      <c r="B86" s="7">
-        <f>'System Parameters'!K29</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="7" t="e">
-        <f t="shared" ref="C86:D86" si="32">#REF!</f>
+    <row r="86" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="O86" s="7" t="e">
+        <f t="shared" ref="O86:P86" si="32">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D86" s="7" t="e">
+      <c r="P86" s="7" t="e">
         <f t="shared" si="32"/>
         <v>#REF!</v>
       </c>
-      <c r="O86" s="7" t="e">
-        <f t="shared" ref="O86:Q86" si="33">#REF!</f>
+      <c r="Q86" s="7">
+        <f>'System Parameters'!Q29</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="7">
+        <f>'System Parameters'!I42</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="7">
+        <f>'System Parameters'!J42</f>
+        <v>0</v>
+      </c>
+      <c r="T86" s="7" t="e">
+        <f t="shared" ref="T86:U86" si="33">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="P86" s="7" t="e">
+      <c r="U86" s="7" t="e">
         <f t="shared" si="33"/>
         <v>#REF!</v>
       </c>
-      <c r="Q86" s="7" t="e">
-        <f t="shared" si="33"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R86" s="7">
-        <f>'System Parameters'!Q29</f>
-        <v>0</v>
-      </c>
-      <c r="S86" s="7">
-        <f>'System Parameters'!I42</f>
-        <v>0</v>
-      </c>
-      <c r="T86" s="7">
-        <f>'System Parameters'!J42</f>
-        <v>0</v>
-      </c>
-      <c r="U86" s="7" t="e">
-        <f t="shared" ref="U86:V86" si="34">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V86" s="7" t="e">
-        <f t="shared" si="34"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="str">
         <f>'System Parameters'!L29</f>
         <v>Total power in profile (mw)</v>
@@ -4443,274 +4609,262 @@
         <f>'System Parameters'!N29</f>
         <v>0</v>
       </c>
+      <c r="Q87" s="7">
+        <f>'System Parameters'!Q30</f>
+        <v>0</v>
+      </c>
       <c r="R87" s="7">
-        <f>'System Parameters'!Q30</f>
+        <f>'System Parameters'!I43</f>
         <v>0</v>
       </c>
       <c r="S87" s="7">
-        <f>'System Parameters'!I43</f>
+        <f>'System Parameters'!J43</f>
         <v>0</v>
       </c>
       <c r="T87" s="7">
-        <f>'System Parameters'!J43</f>
+        <f>'System Parameters'!K43</f>
         <v>0</v>
       </c>
       <c r="U87" s="7">
-        <f>'System Parameters'!K43</f>
-        <v>0</v>
-      </c>
-      <c r="V87" s="7">
         <f>'System Parameters'!L43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="str">
         <f>'System Parameters'!L30</f>
-        <v>"off"</v>
-      </c>
-      <c r="B88" s="7" t="e">
-        <f>SUMPRODUCT(B56:B76, $T56:$T76)</f>
-        <v>#REF!</v>
+        <v>Sleep</v>
+      </c>
+      <c r="B88" s="7">
+        <f>SUMPRODUCT(B56:B79, $S56:$S79)</f>
+        <v>7.4899999999999993</v>
       </c>
       <c r="C88" s="7" t="str">
         <f>'System Parameters'!N30</f>
         <v>mW</v>
       </c>
-      <c r="D88" s="7" t="e">
-        <f t="shared" ref="D88:O88" si="35">SUMPRODUCT(D56:D76, $T56:$T76)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O88" s="7" t="e">
-        <f t="shared" si="35"/>
-        <v>#REF!</v>
+      <c r="D88" s="7">
+        <f>SUMPRODUCT(D56:D79, $S56:$S79)</f>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="E88" s="7">
+        <f t="shared" ref="E88:N88" si="34">SUMPRODUCT(E56:E79, $S56:$S79)</f>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="F88" s="7">
+        <f t="shared" si="34"/>
+        <v>7.4009999999999998</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" si="34"/>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="H88" s="7">
+        <f t="shared" si="34"/>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="I88" s="7">
+        <f t="shared" si="34"/>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="J88" s="7">
+        <f t="shared" si="34"/>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="K88" s="7">
+        <f t="shared" si="34"/>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="L88" s="7">
+        <f t="shared" si="34"/>
+        <v>6.8299999999999992</v>
+      </c>
+      <c r="M88" s="7">
+        <f t="shared" si="34"/>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="N88" s="7">
+        <f t="shared" si="34"/>
+        <v>7.4899999999999993</v>
+      </c>
+      <c r="Q88" s="7">
+        <f>'System Parameters'!Q31</f>
+        <v>0</v>
       </c>
       <c r="R88" s="7">
-        <f>'System Parameters'!Q31</f>
+        <f>'System Parameters'!I44</f>
         <v>0</v>
       </c>
       <c r="S88" s="7">
-        <f>'System Parameters'!I44</f>
+        <f>'System Parameters'!J44</f>
         <v>0</v>
       </c>
       <c r="T88" s="7">
-        <f>'System Parameters'!J44</f>
+        <f>'System Parameters'!K44</f>
         <v>0</v>
       </c>
       <c r="U88" s="7">
-        <f>'System Parameters'!K44</f>
-        <v>0</v>
-      </c>
-      <c r="V88" s="7">
         <f>'System Parameters'!L44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="str">
         <f>'System Parameters'!L31</f>
-        <v>"sensing"</v>
-      </c>
-      <c r="B89" s="7" t="e">
-        <f>SUMPRODUCT(B56:B76,$U56:$U76)</f>
-        <v>#REF!</v>
+        <v>Monitoring</v>
+      </c>
+      <c r="B89" s="7">
+        <f>SUMPRODUCT(B56:B79,$T56:$T79)</f>
+        <v>82.576449999999994</v>
       </c>
       <c r="C89" s="7" t="str">
         <f>'System Parameters'!N31</f>
         <v>mW</v>
       </c>
-      <c r="D89" s="7" t="e">
-        <f t="shared" ref="D89:O89" si="36">SUMPRODUCT(D56:D76,$U56:$U76)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O89" s="7" t="e">
-        <f t="shared" si="36"/>
-        <v>#REF!</v>
+      <c r="D89" s="7">
+        <f>SUMPRODUCT(D56:D79,$T56:$T79)</f>
+        <v>82.113699999999994</v>
+      </c>
+      <c r="E89" s="7">
+        <f t="shared" ref="E89:N89" si="35">SUMPRODUCT(E56:E79,$T56:$T79)</f>
+        <v>82.330555000000004</v>
+      </c>
+      <c r="F89" s="7">
+        <f t="shared" si="35"/>
+        <v>82.576449999999994</v>
+      </c>
+      <c r="G89" s="7">
+        <f t="shared" si="35"/>
+        <v>82.576449999999994</v>
+      </c>
+      <c r="H89" s="7">
+        <f t="shared" si="35"/>
+        <v>80.626450000000006</v>
+      </c>
+      <c r="I89" s="7">
+        <f t="shared" si="35"/>
+        <v>82.53895</v>
+      </c>
+      <c r="J89" s="7">
+        <f t="shared" si="35"/>
+        <v>82.04294999999999</v>
+      </c>
+      <c r="K89" s="7">
+        <f t="shared" si="35"/>
+        <v>82.576449999999994</v>
+      </c>
+      <c r="L89" s="7">
+        <f t="shared" si="35"/>
+        <v>82.048450000000003</v>
+      </c>
+      <c r="M89" s="7">
+        <f t="shared" si="35"/>
+        <v>80.176450000000003</v>
+      </c>
+      <c r="N89" s="7">
+        <f t="shared" si="35"/>
+        <v>80.47645</v>
+      </c>
+      <c r="Q89" s="7">
+        <f>'System Parameters'!Q32</f>
+        <v>0</v>
       </c>
       <c r="R89" s="7">
-        <f>'System Parameters'!Q32</f>
+        <f>'System Parameters'!I45</f>
         <v>0</v>
       </c>
       <c r="S89" s="7">
-        <f>'System Parameters'!I45</f>
+        <f>'System Parameters'!J45</f>
         <v>0</v>
       </c>
       <c r="T89" s="7">
-        <f>'System Parameters'!J45</f>
+        <f>'System Parameters'!K45</f>
         <v>0</v>
       </c>
       <c r="U89" s="7">
-        <f>'System Parameters'!K45</f>
-        <v>0</v>
-      </c>
-      <c r="V89" s="7">
         <f>'System Parameters'!L45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="str">
         <f>'System Parameters'!L32</f>
-        <v>"interactive"</v>
-      </c>
-      <c r="B90" s="7" t="e">
-        <f>SUMPRODUCT(B56:B76, $V56:$V76)</f>
-        <v>#REF!</v>
+        <v>Detecting</v>
+      </c>
+      <c r="B90" s="7">
+        <f>SUMPRODUCT(B56:B79, $U56:$U79)</f>
+        <v>207.03799999999998</v>
       </c>
       <c r="C90" s="7" t="str">
         <f>'System Parameters'!N32</f>
         <v>mW</v>
       </c>
-      <c r="D90" s="7" t="e">
-        <f t="shared" ref="D90:O90" si="37">SUMPRODUCT(D56:D76, $V56:$V76)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O90" s="7" t="e">
-        <f t="shared" si="37"/>
-        <v>#REF!</v>
+      <c r="D90" s="7">
+        <f>SUMPRODUCT(D56:D79, $U56:$U79)</f>
+        <v>203.953</v>
+      </c>
+      <c r="E90" s="7">
+        <f t="shared" ref="E90:N90" si="36">SUMPRODUCT(E56:E79, $U56:$U79)</f>
+        <v>206.83519999999999</v>
+      </c>
+      <c r="F90" s="7">
+        <f t="shared" si="36"/>
+        <v>207.03799999999998</v>
+      </c>
+      <c r="G90" s="7">
+        <f t="shared" si="36"/>
+        <v>201.18799999999999</v>
+      </c>
+      <c r="H90" s="7">
+        <f t="shared" si="36"/>
+        <v>205.673</v>
+      </c>
+      <c r="I90" s="7">
+        <f t="shared" si="36"/>
+        <v>206.85049999999998</v>
+      </c>
+      <c r="J90" s="7">
+        <f t="shared" si="36"/>
+        <v>206.57049999999998</v>
+      </c>
+      <c r="K90" s="7">
+        <f t="shared" si="36"/>
+        <v>207.03799999999998</v>
+      </c>
+      <c r="L90" s="7">
+        <f t="shared" si="36"/>
+        <v>206.642</v>
+      </c>
+      <c r="M90" s="7">
+        <f t="shared" si="36"/>
+        <v>201.03799999999998</v>
+      </c>
+      <c r="N90" s="7">
+        <f t="shared" si="36"/>
+        <v>203.88799999999998</v>
+      </c>
+      <c r="Q90" s="7">
+        <f>'System Parameters'!Q33</f>
+        <v>0</v>
       </c>
       <c r="R90" s="7">
-        <f>'System Parameters'!Q33</f>
+        <f>'System Parameters'!I46</f>
         <v>0</v>
       </c>
       <c r="S90" s="7">
-        <f>'System Parameters'!I46</f>
+        <f>'System Parameters'!J46</f>
         <v>0</v>
       </c>
       <c r="T90" s="7">
-        <f>'System Parameters'!J46</f>
+        <f>'System Parameters'!K46</f>
         <v>0</v>
       </c>
       <c r="U90" s="7">
-        <f>'System Parameters'!K46</f>
-        <v>0</v>
-      </c>
-      <c r="V90" s="7">
         <f>'System Parameters'!L46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="7">
         <f>'System Parameters'!L33</f>
         <v>0</v>
@@ -4767,32 +4921,28 @@
         <f>'System Parameters'!P47</f>
         <v>0</v>
       </c>
-      <c r="O91" s="7">
-        <f>'System Parameters'!Q47</f>
+      <c r="Q91" s="7">
+        <f>'System Parameters'!Q34</f>
         <v>0</v>
       </c>
       <c r="R91" s="7">
-        <f>'System Parameters'!Q34</f>
+        <f>'System Parameters'!I47</f>
         <v>0</v>
       </c>
       <c r="S91" s="7">
-        <f>'System Parameters'!I47</f>
+        <f>'System Parameters'!J47</f>
         <v>0</v>
       </c>
       <c r="T91" s="7">
-        <f>'System Parameters'!J47</f>
+        <f>'System Parameters'!K47</f>
         <v>0</v>
       </c>
       <c r="U91" s="7">
-        <f>'System Parameters'!K47</f>
-        <v>0</v>
-      </c>
-      <c r="V91" s="7">
         <f>'System Parameters'!L47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="str">
         <f>'System Parameters'!L34</f>
         <v>Effective Battery Capacity</v>
@@ -4850,129 +5000,121 @@
         <v>0</v>
       </c>
       <c r="O92" s="7">
-        <f>'System Parameters'!Q48</f>
+        <f>'System Parameters'!O34</f>
         <v>0</v>
       </c>
       <c r="P92" s="7">
-        <f>'System Parameters'!O34</f>
+        <f>'System Parameters'!P34</f>
         <v>0</v>
       </c>
       <c r="Q92" s="7">
-        <f>'System Parameters'!P34</f>
+        <f>'System Parameters'!Q35</f>
         <v>0</v>
       </c>
       <c r="R92" s="7">
-        <f>'System Parameters'!Q35</f>
+        <f>'System Parameters'!I48</f>
         <v>0</v>
       </c>
       <c r="S92" s="7">
-        <f>'System Parameters'!I48</f>
+        <f>'System Parameters'!J48</f>
         <v>0</v>
       </c>
       <c r="T92" s="7">
-        <f>'System Parameters'!J48</f>
+        <f>'System Parameters'!K48</f>
         <v>0</v>
       </c>
       <c r="U92" s="7">
-        <f>'System Parameters'!K48</f>
-        <v>0</v>
-      </c>
-      <c r="V92" s="7">
         <f>'System Parameters'!L48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="7">
         <f>'System Parameters'!L35</f>
         <v>0</v>
       </c>
       <c r="B93" s="7">
-        <f>B80*B81*B82</f>
-        <v>1098.9000000000001</v>
+        <f>B83*B84*B85</f>
+        <v>2197.8000000000002</v>
       </c>
       <c r="C93" s="7" t="str">
         <f>'System Parameters'!N35</f>
         <v>mW*h</v>
       </c>
       <c r="D93" s="7">
-        <f t="shared" ref="D93:O93" si="38">$B93</f>
-        <v>1098.9000000000001</v>
+        <f t="shared" ref="D93:N93" si="37">$B93</f>
+        <v>2197.8000000000002</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f>$B93</f>
+        <v>2197.8000000000002</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="H93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="I93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="J93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="K93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="L93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="M93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="N93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f t="shared" si="37"/>
+        <v>2197.8000000000002</v>
       </c>
       <c r="O93" s="7">
-        <f t="shared" si="38"/>
-        <v>1098.9000000000001</v>
+        <f>'System Parameters'!O35</f>
+        <v>0</v>
       </c>
       <c r="P93" s="7">
-        <f>'System Parameters'!O35</f>
+        <f>'System Parameters'!P35</f>
         <v>0</v>
       </c>
       <c r="Q93" s="7">
-        <f>'System Parameters'!P35</f>
+        <f>'System Parameters'!Q36</f>
         <v>0</v>
       </c>
       <c r="R93" s="7">
-        <f>'System Parameters'!Q36</f>
+        <f>'System Parameters'!I49</f>
         <v>0</v>
       </c>
       <c r="S93" s="7">
-        <f>'System Parameters'!I49</f>
+        <f>'System Parameters'!J49</f>
         <v>0</v>
       </c>
       <c r="T93" s="7">
-        <f>'System Parameters'!J49</f>
+        <f>'System Parameters'!K49</f>
         <v>0</v>
       </c>
       <c r="U93" s="7">
-        <f>'System Parameters'!K49</f>
-        <v>0</v>
-      </c>
-      <c r="V93" s="7">
         <f>'System Parameters'!L49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="7">
         <f>'System Parameters'!L36</f>
         <v>0</v>
@@ -5030,219 +5172,207 @@
         <v>0</v>
       </c>
       <c r="O94" s="7">
-        <f>'System Parameters'!Q50</f>
+        <f>'System Parameters'!O36</f>
         <v>0</v>
       </c>
       <c r="P94" s="7">
-        <f>'System Parameters'!O36</f>
+        <f>'System Parameters'!P36</f>
         <v>0</v>
       </c>
       <c r="Q94" s="7">
-        <f>'System Parameters'!P36</f>
+        <f>'System Parameters'!Q37</f>
         <v>0</v>
       </c>
       <c r="R94" s="7">
-        <f>'System Parameters'!Q37</f>
+        <f>'System Parameters'!I50</f>
         <v>0</v>
       </c>
       <c r="S94" s="7">
-        <f>'System Parameters'!I50</f>
+        <f>'System Parameters'!J50</f>
         <v>0</v>
       </c>
       <c r="T94" s="7">
-        <f>'System Parameters'!J50</f>
+        <f>'System Parameters'!K50</f>
         <v>0</v>
       </c>
       <c r="U94" s="7">
-        <f>'System Parameters'!K50</f>
-        <v>0</v>
-      </c>
-      <c r="V94" s="7">
         <f>'System Parameters'!L50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="str">
         <f>'System Parameters'!L37</f>
         <v>Days of Use</v>
       </c>
-      <c r="B95" s="7" t="e">
-        <f>B93/($T78*B88+$U78*B89+$V78*B90)</f>
-        <v>#REF!</v>
+      <c r="B95" s="7">
+        <f>B93/($S81*B88+$T81*B89+$U81*B90)</f>
+        <v>2.2724642560309736</v>
       </c>
       <c r="C95" s="7" t="str">
         <f>'System Parameters'!N37</f>
         <v>days</v>
       </c>
-      <c r="D95" s="7" t="e">
-        <f t="shared" ref="D95:O95" si="39">D93/($T78*D88+$U78*D89+$V78*D90)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O95" s="7" t="e">
-        <f t="shared" si="39"/>
-        <v>#REF!</v>
+      <c r="D95" s="7">
+        <f>D93/($S81*D88+$T81*D89+$U81*D90)</f>
+        <v>2.2905475933486992</v>
+      </c>
+      <c r="E95" s="7">
+        <f t="shared" ref="E95:N95" si="38">E93/($S81*E88+$T81*E89+$U81*E90)</f>
+        <v>2.2769433459059307</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.2758151127512467</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.2932713516352798</v>
+      </c>
+      <c r="H95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.3075919359961898</v>
+      </c>
+      <c r="I95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.2736985001612711</v>
+      </c>
+      <c r="J95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.2823024182067884</v>
+      </c>
+      <c r="K95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.2724642560309736</v>
+      </c>
+      <c r="L95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.3072612618282506</v>
+      </c>
+      <c r="M95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.3317746172943616</v>
+      </c>
+      <c r="N95" s="7">
+        <f t="shared" si="38"/>
+        <v>2.3164755317001977</v>
+      </c>
+      <c r="O95" s="7">
+        <f>'System Parameters'!O37</f>
+        <v>0</v>
       </c>
       <c r="P95" s="7">
-        <f>'System Parameters'!O37</f>
+        <f>'System Parameters'!P37</f>
         <v>0</v>
       </c>
       <c r="Q95" s="7">
-        <f>'System Parameters'!P37</f>
+        <f>'System Parameters'!Q38</f>
         <v>0</v>
       </c>
       <c r="R95" s="7">
-        <f>'System Parameters'!Q38</f>
+        <f>'System Parameters'!I51</f>
         <v>0</v>
       </c>
       <c r="S95" s="7">
-        <f>'System Parameters'!I51</f>
+        <f>'System Parameters'!J51</f>
         <v>0</v>
       </c>
       <c r="T95" s="7">
-        <f>'System Parameters'!J51</f>
+        <f>'System Parameters'!K51</f>
         <v>0</v>
       </c>
       <c r="U95" s="7">
-        <f>'System Parameters'!K51</f>
-        <v>0</v>
-      </c>
-      <c r="V95" s="7">
         <f>'System Parameters'!L51</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="str">
         <f>'System Parameters'!L38</f>
         <v>Hours of Use</v>
       </c>
-      <c r="B96" s="7" t="e">
+      <c r="B96" s="7">
         <f>B95*24</f>
-        <v>#REF!</v>
+        <v>54.539142144743366</v>
       </c>
       <c r="C96" s="7" t="str">
         <f>'System Parameters'!N38</f>
         <v>hours</v>
       </c>
-      <c r="D96" s="7" t="e">
-        <f t="shared" ref="D96:O96" si="40">D95*24</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O96" s="7" t="e">
-        <f t="shared" si="40"/>
-        <v>#REF!</v>
+      <c r="D96" s="7">
+        <f t="shared" ref="D96:N96" si="39">D95*24</f>
+        <v>54.97314224036878</v>
+      </c>
+      <c r="E96" s="7">
+        <f t="shared" si="39"/>
+        <v>54.646640301742337</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" si="39"/>
+        <v>54.619562706029924</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" si="39"/>
+        <v>55.038512439246716</v>
+      </c>
+      <c r="H96" s="7">
+        <f t="shared" si="39"/>
+        <v>55.38220646390856</v>
+      </c>
+      <c r="I96" s="7">
+        <f t="shared" si="39"/>
+        <v>54.568764003870506</v>
+      </c>
+      <c r="J96" s="7">
+        <f t="shared" si="39"/>
+        <v>54.775258036962924</v>
+      </c>
+      <c r="K96" s="7">
+        <f t="shared" si="39"/>
+        <v>54.539142144743366</v>
+      </c>
+      <c r="L96" s="7">
+        <f t="shared" si="39"/>
+        <v>55.374270283878019</v>
+      </c>
+      <c r="M96" s="7">
+        <f t="shared" si="39"/>
+        <v>55.962590815064679</v>
+      </c>
+      <c r="N96" s="7">
+        <f t="shared" si="39"/>
+        <v>55.595412760804749</v>
+      </c>
+      <c r="O96" s="7">
+        <f>'System Parameters'!O38</f>
+        <v>0</v>
       </c>
       <c r="P96" s="7">
-        <f>'System Parameters'!O38</f>
+        <f>'System Parameters'!P38</f>
         <v>0</v>
       </c>
       <c r="Q96" s="7">
-        <f>'System Parameters'!P38</f>
+        <f>'System Parameters'!Q39</f>
         <v>0</v>
       </c>
       <c r="R96" s="7">
-        <f>'System Parameters'!Q39</f>
+        <f>'System Parameters'!I52</f>
         <v>0</v>
       </c>
       <c r="S96" s="7">
-        <f>'System Parameters'!I52</f>
+        <f>'System Parameters'!J52</f>
         <v>0</v>
       </c>
       <c r="T96" s="7">
-        <f>'System Parameters'!J52</f>
+        <f>'System Parameters'!K52</f>
         <v>0</v>
       </c>
       <c r="U96" s="7">
-        <f>'System Parameters'!K52</f>
-        <v>0</v>
-      </c>
-      <c r="V96" s="7">
         <f>'System Parameters'!L52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="7">
         <f>'System Parameters'!A53</f>
         <v>0</v>
@@ -5260,41 +5390,37 @@
         <v>0</v>
       </c>
       <c r="O97" s="7">
-        <f>'System Parameters'!N40</f>
+        <f>'System Parameters'!O40</f>
         <v>0</v>
       </c>
       <c r="P97" s="7">
-        <f>'System Parameters'!O40</f>
+        <f>'System Parameters'!P40</f>
         <v>0</v>
       </c>
       <c r="Q97" s="7">
-        <f>'System Parameters'!P40</f>
+        <f>'System Parameters'!Q40</f>
         <v>0</v>
       </c>
       <c r="R97" s="7">
-        <f>'System Parameters'!Q40</f>
+        <f>'System Parameters'!I53</f>
         <v>0</v>
       </c>
       <c r="S97" s="7">
-        <f>'System Parameters'!I53</f>
+        <f>'System Parameters'!J53</f>
         <v>0</v>
       </c>
       <c r="T97" s="7">
-        <f>'System Parameters'!J53</f>
+        <f>'System Parameters'!K53</f>
         <v>0</v>
       </c>
       <c r="U97" s="7">
-        <f>'System Parameters'!K53</f>
-        <v>0</v>
-      </c>
-      <c r="V97" s="7">
         <f>'System Parameters'!L53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B98" s="7">
         <f>'System Parameters'!K41</f>
@@ -5304,86 +5430,82 @@
         <f>'System Parameters'!L41</f>
         <v>0</v>
       </c>
-      <c r="D98" s="17" t="e">
-        <f t="shared" ref="D98:O98" si="41">D96/$B96-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="L98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="M98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="N98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O98" s="17" t="e">
-        <f t="shared" si="41"/>
-        <v>#REF!</v>
+      <c r="D98" s="17">
+        <f t="shared" ref="D98:N98" si="40">D96/$B96-1</f>
+        <v>7.9575893304959511E-3</v>
+      </c>
+      <c r="E98" s="17">
+        <f t="shared" si="40"/>
+        <v>1.9710276467803656E-3</v>
+      </c>
+      <c r="F98" s="17">
+        <f t="shared" si="40"/>
+        <v>1.4745476024013993E-3</v>
+      </c>
+      <c r="G98" s="17">
+        <f t="shared" si="40"/>
+        <v>9.1561816865042278E-3</v>
+      </c>
+      <c r="H98" s="17">
+        <f t="shared" si="40"/>
+        <v>1.5457968094322982E-2</v>
+      </c>
+      <c r="I98" s="17">
+        <f t="shared" si="40"/>
+        <v>5.4313027235597389E-4</v>
+      </c>
+      <c r="J98" s="17">
+        <f t="shared" si="40"/>
+        <v>4.3292923748767809E-3</v>
+      </c>
+      <c r="K98" s="17">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="17">
+        <f t="shared" si="40"/>
+        <v>1.5312454620541649E-2</v>
+      </c>
+      <c r="M98" s="17">
+        <f t="shared" si="40"/>
+        <v>2.6099579390955086E-2</v>
+      </c>
+      <c r="N98" s="17">
+        <f t="shared" si="40"/>
+        <v>1.9367202609423373E-2</v>
+      </c>
+      <c r="O98" s="7">
+        <f>'System Parameters'!O41</f>
+        <v>0</v>
       </c>
       <c r="P98" s="7">
-        <f>'System Parameters'!O41</f>
+        <f>'System Parameters'!P41</f>
         <v>0</v>
       </c>
       <c r="Q98" s="7">
-        <f>'System Parameters'!P41</f>
+        <f>'System Parameters'!Q41</f>
         <v>0</v>
       </c>
       <c r="R98" s="7">
-        <f>'System Parameters'!Q41</f>
+        <f>'System Parameters'!I54</f>
         <v>0</v>
       </c>
       <c r="S98" s="7">
-        <f>'System Parameters'!I54</f>
+        <f>'System Parameters'!J54</f>
         <v>0</v>
       </c>
       <c r="T98" s="7">
-        <f>'System Parameters'!J54</f>
+        <f>'System Parameters'!K54</f>
         <v>0</v>
       </c>
       <c r="U98" s="7">
-        <f>'System Parameters'!K54</f>
-        <v>0</v>
-      </c>
-      <c r="V98" s="7">
         <f>'System Parameters'!L54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B99" s="7">
         <f>'System Parameters'!K42</f>
@@ -5394,71 +5516,68 @@
         <v>0</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K99" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="L99" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="M99" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="N99" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H99" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M99" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N99" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>49</v>
+      <c r="O99" s="7">
+        <f>'System Parameters'!O42</f>
+        <v>0</v>
       </c>
       <c r="P99" s="7">
-        <f>'System Parameters'!O42</f>
+        <f>'System Parameters'!P42</f>
         <v>0</v>
       </c>
       <c r="Q99" s="7">
-        <f>'System Parameters'!P42</f>
+        <f>'System Parameters'!Q42</f>
         <v>0</v>
       </c>
       <c r="R99" s="7">
-        <f>'System Parameters'!Q42</f>
+        <f>'System Parameters'!I55</f>
         <v>0</v>
       </c>
       <c r="S99" s="7">
-        <f>'System Parameters'!I55</f>
+        <f>'System Parameters'!J55</f>
         <v>0</v>
       </c>
       <c r="T99" s="7">
-        <f>'System Parameters'!J55</f>
+        <f>'System Parameters'!K55</f>
         <v>0</v>
       </c>
       <c r="U99" s="7">
-        <f>'System Parameters'!K55</f>
-        <v>0</v>
-      </c>
-      <c r="V99" s="7">
         <f>'System Parameters'!L55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="7">
         <f>'System Parameters'!A56</f>
         <v>0</v>
@@ -5476,39 +5595,35 @@
         <v>0</v>
       </c>
       <c r="O100" s="7">
-        <f>'System Parameters'!E56</f>
+        <f>'System Parameters'!F56</f>
         <v>0</v>
       </c>
       <c r="P100" s="7">
-        <f>'System Parameters'!F56</f>
+        <f>'System Parameters'!G56</f>
         <v>0</v>
       </c>
       <c r="Q100" s="7">
-        <f>'System Parameters'!G56</f>
+        <f>'System Parameters'!H56</f>
         <v>0</v>
       </c>
       <c r="R100" s="7">
-        <f>'System Parameters'!H56</f>
+        <f>'System Parameters'!I56</f>
         <v>0</v>
       </c>
       <c r="S100" s="7">
-        <f>'System Parameters'!I56</f>
+        <f>'System Parameters'!J56</f>
         <v>0</v>
       </c>
       <c r="T100" s="7">
-        <f>'System Parameters'!J56</f>
+        <f>'System Parameters'!K56</f>
         <v>0</v>
       </c>
       <c r="U100" s="7">
-        <f>'System Parameters'!K56</f>
-        <v>0</v>
-      </c>
-      <c r="V100" s="7">
         <f>'System Parameters'!L56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="7">
         <f>'System Parameters'!A57</f>
         <v>0</v>
@@ -5526,39 +5641,35 @@
         <v>0</v>
       </c>
       <c r="O101" s="7">
-        <f>'System Parameters'!E57</f>
+        <f>'System Parameters'!F57</f>
         <v>0</v>
       </c>
       <c r="P101" s="7">
-        <f>'System Parameters'!F57</f>
+        <f>'System Parameters'!G57</f>
         <v>0</v>
       </c>
       <c r="Q101" s="7">
-        <f>'System Parameters'!G57</f>
+        <f>'System Parameters'!H57</f>
         <v>0</v>
       </c>
       <c r="R101" s="7">
-        <f>'System Parameters'!H57</f>
+        <f>'System Parameters'!I57</f>
         <v>0</v>
       </c>
       <c r="S101" s="7">
-        <f>'System Parameters'!I57</f>
+        <f>'System Parameters'!J57</f>
         <v>0</v>
       </c>
       <c r="T101" s="7">
-        <f>'System Parameters'!J57</f>
+        <f>'System Parameters'!K57</f>
         <v>0</v>
       </c>
       <c r="U101" s="7">
-        <f>'System Parameters'!K57</f>
-        <v>0</v>
-      </c>
-      <c r="V101" s="7">
         <f>'System Parameters'!L57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="7">
         <f>'System Parameters'!A58</f>
         <v>0</v>
@@ -5576,39 +5687,35 @@
         <v>0</v>
       </c>
       <c r="O102" s="7">
-        <f>'System Parameters'!E58</f>
+        <f>'System Parameters'!F58</f>
         <v>0</v>
       </c>
       <c r="P102" s="7">
-        <f>'System Parameters'!F58</f>
+        <f>'System Parameters'!G58</f>
         <v>0</v>
       </c>
       <c r="Q102" s="7">
-        <f>'System Parameters'!G58</f>
+        <f>'System Parameters'!H58</f>
         <v>0</v>
       </c>
       <c r="R102" s="7">
-        <f>'System Parameters'!H58</f>
+        <f>'System Parameters'!I58</f>
         <v>0</v>
       </c>
       <c r="S102" s="7">
-        <f>'System Parameters'!I58</f>
+        <f>'System Parameters'!J58</f>
         <v>0</v>
       </c>
       <c r="T102" s="7">
-        <f>'System Parameters'!J58</f>
+        <f>'System Parameters'!K58</f>
         <v>0</v>
       </c>
       <c r="U102" s="7">
-        <f>'System Parameters'!K58</f>
-        <v>0</v>
-      </c>
-      <c r="V102" s="7">
         <f>'System Parameters'!L58</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="7">
         <f>'System Parameters'!A59</f>
         <v>0</v>
@@ -5626,39 +5733,35 @@
         <v>0</v>
       </c>
       <c r="O103" s="7">
-        <f>'System Parameters'!E59</f>
+        <f>'System Parameters'!F59</f>
         <v>0</v>
       </c>
       <c r="P103" s="7">
-        <f>'System Parameters'!F59</f>
+        <f>'System Parameters'!G59</f>
         <v>0</v>
       </c>
       <c r="Q103" s="7">
-        <f>'System Parameters'!G59</f>
+        <f>'System Parameters'!H59</f>
         <v>0</v>
       </c>
       <c r="R103" s="7">
-        <f>'System Parameters'!H59</f>
+        <f>'System Parameters'!I59</f>
         <v>0</v>
       </c>
       <c r="S103" s="7">
-        <f>'System Parameters'!I59</f>
+        <f>'System Parameters'!J59</f>
         <v>0</v>
       </c>
       <c r="T103" s="7">
-        <f>'System Parameters'!J59</f>
+        <f>'System Parameters'!K59</f>
         <v>0</v>
       </c>
       <c r="U103" s="7">
-        <f>'System Parameters'!K59</f>
-        <v>0</v>
-      </c>
-      <c r="V103" s="7">
         <f>'System Parameters'!L59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="7">
         <f>'System Parameters'!A60</f>
         <v>0</v>
@@ -5676,39 +5779,35 @@
         <v>0</v>
       </c>
       <c r="O104" s="7">
-        <f>'System Parameters'!E60</f>
+        <f>'System Parameters'!F60</f>
         <v>0</v>
       </c>
       <c r="P104" s="7">
-        <f>'System Parameters'!F60</f>
+        <f>'System Parameters'!G60</f>
         <v>0</v>
       </c>
       <c r="Q104" s="7">
-        <f>'System Parameters'!G60</f>
+        <f>'System Parameters'!H60</f>
         <v>0</v>
       </c>
       <c r="R104" s="7">
-        <f>'System Parameters'!H60</f>
+        <f>'System Parameters'!I60</f>
         <v>0</v>
       </c>
       <c r="S104" s="7">
-        <f>'System Parameters'!I60</f>
+        <f>'System Parameters'!J60</f>
         <v>0</v>
       </c>
       <c r="T104" s="7">
-        <f>'System Parameters'!J60</f>
+        <f>'System Parameters'!K60</f>
         <v>0</v>
       </c>
       <c r="U104" s="7">
-        <f>'System Parameters'!K60</f>
-        <v>0</v>
-      </c>
-      <c r="V104" s="7">
         <f>'System Parameters'!L60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="7">
         <f>'System Parameters'!A61</f>
         <v>0</v>
@@ -5726,39 +5825,35 @@
         <v>0</v>
       </c>
       <c r="O105" s="7">
-        <f>'System Parameters'!E61</f>
+        <f>'System Parameters'!F61</f>
         <v>0</v>
       </c>
       <c r="P105" s="7">
-        <f>'System Parameters'!F61</f>
+        <f>'System Parameters'!G61</f>
         <v>0</v>
       </c>
       <c r="Q105" s="7">
-        <f>'System Parameters'!G61</f>
+        <f>'System Parameters'!H61</f>
         <v>0</v>
       </c>
       <c r="R105" s="7">
-        <f>'System Parameters'!H61</f>
+        <f>'System Parameters'!I61</f>
         <v>0</v>
       </c>
       <c r="S105" s="7">
-        <f>'System Parameters'!I61</f>
+        <f>'System Parameters'!J61</f>
         <v>0</v>
       </c>
       <c r="T105" s="7">
-        <f>'System Parameters'!J61</f>
+        <f>'System Parameters'!K61</f>
         <v>0</v>
       </c>
       <c r="U105" s="7">
-        <f>'System Parameters'!K61</f>
-        <v>0</v>
-      </c>
-      <c r="V105" s="7">
         <f>'System Parameters'!L61</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="7">
         <f>'System Parameters'!A62</f>
         <v>0</v>
@@ -5776,39 +5871,35 @@
         <v>0</v>
       </c>
       <c r="O106" s="7">
-        <f>'System Parameters'!E62</f>
+        <f>'System Parameters'!F62</f>
         <v>0</v>
       </c>
       <c r="P106" s="7">
-        <f>'System Parameters'!F62</f>
+        <f>'System Parameters'!G62</f>
         <v>0</v>
       </c>
       <c r="Q106" s="7">
-        <f>'System Parameters'!G62</f>
+        <f>'System Parameters'!H62</f>
         <v>0</v>
       </c>
       <c r="R106" s="7">
-        <f>'System Parameters'!H62</f>
+        <f>'System Parameters'!I62</f>
         <v>0</v>
       </c>
       <c r="S106" s="7">
-        <f>'System Parameters'!I62</f>
+        <f>'System Parameters'!J62</f>
         <v>0</v>
       </c>
       <c r="T106" s="7">
-        <f>'System Parameters'!J62</f>
+        <f>'System Parameters'!K62</f>
         <v>0</v>
       </c>
       <c r="U106" s="7">
-        <f>'System Parameters'!K62</f>
-        <v>0</v>
-      </c>
-      <c r="V106" s="7">
         <f>'System Parameters'!L62</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="7">
         <f>'System Parameters'!A63</f>
         <v>0</v>
@@ -5826,39 +5917,35 @@
         <v>0</v>
       </c>
       <c r="O107" s="7">
-        <f>'System Parameters'!E63</f>
+        <f>'System Parameters'!F63</f>
         <v>0</v>
       </c>
       <c r="P107" s="7">
-        <f>'System Parameters'!F63</f>
+        <f>'System Parameters'!G63</f>
         <v>0</v>
       </c>
       <c r="Q107" s="7">
-        <f>'System Parameters'!G63</f>
+        <f>'System Parameters'!H63</f>
         <v>0</v>
       </c>
       <c r="R107" s="7">
-        <f>'System Parameters'!H63</f>
+        <f>'System Parameters'!I63</f>
         <v>0</v>
       </c>
       <c r="S107" s="7">
-        <f>'System Parameters'!I63</f>
+        <f>'System Parameters'!J63</f>
         <v>0</v>
       </c>
       <c r="T107" s="7">
-        <f>'System Parameters'!J63</f>
+        <f>'System Parameters'!K63</f>
         <v>0</v>
       </c>
       <c r="U107" s="7">
-        <f>'System Parameters'!K63</f>
-        <v>0</v>
-      </c>
-      <c r="V107" s="7">
         <f>'System Parameters'!L63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="7">
         <f>'System Parameters'!A64</f>
         <v>0</v>
@@ -5876,39 +5963,35 @@
         <v>0</v>
       </c>
       <c r="O108" s="7">
-        <f>'System Parameters'!E64</f>
+        <f>'System Parameters'!F64</f>
         <v>0</v>
       </c>
       <c r="P108" s="7">
-        <f>'System Parameters'!F64</f>
+        <f>'System Parameters'!G64</f>
         <v>0</v>
       </c>
       <c r="Q108" s="7">
-        <f>'System Parameters'!G64</f>
+        <f>'System Parameters'!H64</f>
         <v>0</v>
       </c>
       <c r="R108" s="7">
-        <f>'System Parameters'!H64</f>
+        <f>'System Parameters'!I64</f>
         <v>0</v>
       </c>
       <c r="S108" s="7">
-        <f>'System Parameters'!I64</f>
+        <f>'System Parameters'!J64</f>
         <v>0</v>
       </c>
       <c r="T108" s="7">
-        <f>'System Parameters'!J64</f>
+        <f>'System Parameters'!K64</f>
         <v>0</v>
       </c>
       <c r="U108" s="7">
-        <f>'System Parameters'!K64</f>
-        <v>0</v>
-      </c>
-      <c r="V108" s="7">
         <f>'System Parameters'!L64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="7">
         <f>'System Parameters'!A65</f>
         <v>0</v>
@@ -5926,39 +6009,35 @@
         <v>0</v>
       </c>
       <c r="O109" s="7">
-        <f>'System Parameters'!E65</f>
+        <f>'System Parameters'!F65</f>
         <v>0</v>
       </c>
       <c r="P109" s="7">
-        <f>'System Parameters'!F65</f>
+        <f>'System Parameters'!G65</f>
         <v>0</v>
       </c>
       <c r="Q109" s="7">
-        <f>'System Parameters'!G65</f>
+        <f>'System Parameters'!H65</f>
         <v>0</v>
       </c>
       <c r="R109" s="7">
-        <f>'System Parameters'!H65</f>
+        <f>'System Parameters'!I65</f>
         <v>0</v>
       </c>
       <c r="S109" s="7">
-        <f>'System Parameters'!I65</f>
+        <f>'System Parameters'!J65</f>
         <v>0</v>
       </c>
       <c r="T109" s="7">
-        <f>'System Parameters'!J65</f>
+        <f>'System Parameters'!K65</f>
         <v>0</v>
       </c>
       <c r="U109" s="7">
-        <f>'System Parameters'!K65</f>
-        <v>0</v>
-      </c>
-      <c r="V109" s="7">
         <f>'System Parameters'!L65</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="7">
         <f>'System Parameters'!A66</f>
         <v>0</v>
@@ -5976,39 +6055,35 @@
         <v>0</v>
       </c>
       <c r="O110" s="7">
-        <f>'System Parameters'!E66</f>
+        <f>'System Parameters'!F66</f>
         <v>0</v>
       </c>
       <c r="P110" s="7">
-        <f>'System Parameters'!F66</f>
+        <f>'System Parameters'!G66</f>
         <v>0</v>
       </c>
       <c r="Q110" s="7">
-        <f>'System Parameters'!G66</f>
+        <f>'System Parameters'!H66</f>
         <v>0</v>
       </c>
       <c r="R110" s="7">
-        <f>'System Parameters'!H66</f>
+        <f>'System Parameters'!I66</f>
         <v>0</v>
       </c>
       <c r="S110" s="7">
-        <f>'System Parameters'!I66</f>
+        <f>'System Parameters'!J66</f>
         <v>0</v>
       </c>
       <c r="T110" s="7">
-        <f>'System Parameters'!J66</f>
+        <f>'System Parameters'!K66</f>
         <v>0</v>
       </c>
       <c r="U110" s="7">
-        <f>'System Parameters'!K66</f>
-        <v>0</v>
-      </c>
-      <c r="V110" s="7">
         <f>'System Parameters'!L66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="7">
         <f>'System Parameters'!A67</f>
         <v>0</v>
@@ -6026,39 +6101,35 @@
         <v>0</v>
       </c>
       <c r="O111" s="7">
-        <f>'System Parameters'!E67</f>
+        <f>'System Parameters'!F67</f>
         <v>0</v>
       </c>
       <c r="P111" s="7">
-        <f>'System Parameters'!F67</f>
+        <f>'System Parameters'!G67</f>
         <v>0</v>
       </c>
       <c r="Q111" s="7">
-        <f>'System Parameters'!G67</f>
+        <f>'System Parameters'!H67</f>
         <v>0</v>
       </c>
       <c r="R111" s="7">
-        <f>'System Parameters'!H67</f>
+        <f>'System Parameters'!I67</f>
         <v>0</v>
       </c>
       <c r="S111" s="7">
-        <f>'System Parameters'!I67</f>
+        <f>'System Parameters'!J67</f>
         <v>0</v>
       </c>
       <c r="T111" s="7">
-        <f>'System Parameters'!J67</f>
+        <f>'System Parameters'!K67</f>
         <v>0</v>
       </c>
       <c r="U111" s="7">
-        <f>'System Parameters'!K67</f>
-        <v>0</v>
-      </c>
-      <c r="V111" s="7">
         <f>'System Parameters'!L67</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="7">
         <f>'System Parameters'!A68</f>
         <v>0</v>
@@ -6076,39 +6147,35 @@
         <v>0</v>
       </c>
       <c r="O112" s="7">
-        <f>'System Parameters'!E68</f>
+        <f>'System Parameters'!F68</f>
         <v>0</v>
       </c>
       <c r="P112" s="7">
-        <f>'System Parameters'!F68</f>
+        <f>'System Parameters'!G68</f>
         <v>0</v>
       </c>
       <c r="Q112" s="7">
-        <f>'System Parameters'!G68</f>
+        <f>'System Parameters'!H68</f>
         <v>0</v>
       </c>
       <c r="R112" s="7">
-        <f>'System Parameters'!H68</f>
+        <f>'System Parameters'!I68</f>
         <v>0</v>
       </c>
       <c r="S112" s="7">
-        <f>'System Parameters'!I68</f>
+        <f>'System Parameters'!J68</f>
         <v>0</v>
       </c>
       <c r="T112" s="7">
-        <f>'System Parameters'!J68</f>
+        <f>'System Parameters'!K68</f>
         <v>0</v>
       </c>
       <c r="U112" s="7">
-        <f>'System Parameters'!K68</f>
-        <v>0</v>
-      </c>
-      <c r="V112" s="7">
         <f>'System Parameters'!L68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="7">
         <f>'System Parameters'!A69</f>
         <v>0</v>
@@ -6126,39 +6193,35 @@
         <v>0</v>
       </c>
       <c r="O113" s="7">
-        <f>'System Parameters'!E69</f>
+        <f>'System Parameters'!F69</f>
         <v>0</v>
       </c>
       <c r="P113" s="7">
-        <f>'System Parameters'!F69</f>
+        <f>'System Parameters'!G69</f>
         <v>0</v>
       </c>
       <c r="Q113" s="7">
-        <f>'System Parameters'!G69</f>
+        <f>'System Parameters'!H69</f>
         <v>0</v>
       </c>
       <c r="R113" s="7">
-        <f>'System Parameters'!H69</f>
+        <f>'System Parameters'!I69</f>
         <v>0</v>
       </c>
       <c r="S113" s="7">
-        <f>'System Parameters'!I69</f>
+        <f>'System Parameters'!J69</f>
         <v>0</v>
       </c>
       <c r="T113" s="7">
-        <f>'System Parameters'!J69</f>
+        <f>'System Parameters'!K69</f>
         <v>0</v>
       </c>
       <c r="U113" s="7">
-        <f>'System Parameters'!K69</f>
-        <v>0</v>
-      </c>
-      <c r="V113" s="7">
         <f>'System Parameters'!L69</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="7">
         <f>'System Parameters'!A70</f>
         <v>0</v>
@@ -6176,39 +6239,35 @@
         <v>0</v>
       </c>
       <c r="O114" s="7">
-        <f>'System Parameters'!E70</f>
+        <f>'System Parameters'!F70</f>
         <v>0</v>
       </c>
       <c r="P114" s="7">
-        <f>'System Parameters'!F70</f>
+        <f>'System Parameters'!G70</f>
         <v>0</v>
       </c>
       <c r="Q114" s="7">
-        <f>'System Parameters'!G70</f>
+        <f>'System Parameters'!H70</f>
         <v>0</v>
       </c>
       <c r="R114" s="7">
-        <f>'System Parameters'!H70</f>
+        <f>'System Parameters'!I70</f>
         <v>0</v>
       </c>
       <c r="S114" s="7">
-        <f>'System Parameters'!I70</f>
+        <f>'System Parameters'!J70</f>
         <v>0</v>
       </c>
       <c r="T114" s="7">
-        <f>'System Parameters'!J70</f>
+        <f>'System Parameters'!K70</f>
         <v>0</v>
       </c>
       <c r="U114" s="7">
-        <f>'System Parameters'!K70</f>
-        <v>0</v>
-      </c>
-      <c r="V114" s="7">
         <f>'System Parameters'!L70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="7">
         <f>'System Parameters'!A71</f>
         <v>0</v>
@@ -6226,39 +6285,35 @@
         <v>0</v>
       </c>
       <c r="O115" s="7">
-        <f>'System Parameters'!E71</f>
+        <f>'System Parameters'!F71</f>
         <v>0</v>
       </c>
       <c r="P115" s="7">
-        <f>'System Parameters'!F71</f>
+        <f>'System Parameters'!G71</f>
         <v>0</v>
       </c>
       <c r="Q115" s="7">
-        <f>'System Parameters'!G71</f>
+        <f>'System Parameters'!H71</f>
         <v>0</v>
       </c>
       <c r="R115" s="7">
-        <f>'System Parameters'!H71</f>
+        <f>'System Parameters'!I71</f>
         <v>0</v>
       </c>
       <c r="S115" s="7">
-        <f>'System Parameters'!I71</f>
+        <f>'System Parameters'!J71</f>
         <v>0</v>
       </c>
       <c r="T115" s="7">
-        <f>'System Parameters'!J71</f>
+        <f>'System Parameters'!K71</f>
         <v>0</v>
       </c>
       <c r="U115" s="7">
-        <f>'System Parameters'!K71</f>
-        <v>0</v>
-      </c>
-      <c r="V115" s="7">
         <f>'System Parameters'!L71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="7">
         <f>'System Parameters'!A72</f>
         <v>0</v>
@@ -6276,39 +6331,35 @@
         <v>0</v>
       </c>
       <c r="O116" s="7">
-        <f>'System Parameters'!E72</f>
+        <f>'System Parameters'!F72</f>
         <v>0</v>
       </c>
       <c r="P116" s="7">
-        <f>'System Parameters'!F72</f>
+        <f>'System Parameters'!G72</f>
         <v>0</v>
       </c>
       <c r="Q116" s="7">
-        <f>'System Parameters'!G72</f>
+        <f>'System Parameters'!H72</f>
         <v>0</v>
       </c>
       <c r="R116" s="7">
-        <f>'System Parameters'!H72</f>
+        <f>'System Parameters'!I72</f>
         <v>0</v>
       </c>
       <c r="S116" s="7">
-        <f>'System Parameters'!I72</f>
+        <f>'System Parameters'!J72</f>
         <v>0</v>
       </c>
       <c r="T116" s="7">
-        <f>'System Parameters'!J72</f>
+        <f>'System Parameters'!K72</f>
         <v>0</v>
       </c>
       <c r="U116" s="7">
-        <f>'System Parameters'!K72</f>
-        <v>0</v>
-      </c>
-      <c r="V116" s="7">
         <f>'System Parameters'!L72</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="7">
         <f>'System Parameters'!A73</f>
         <v>0</v>
@@ -6326,39 +6377,35 @@
         <v>0</v>
       </c>
       <c r="O117" s="7">
-        <f>'System Parameters'!E73</f>
+        <f>'System Parameters'!F73</f>
         <v>0</v>
       </c>
       <c r="P117" s="7">
-        <f>'System Parameters'!F73</f>
+        <f>'System Parameters'!G73</f>
         <v>0</v>
       </c>
       <c r="Q117" s="7">
-        <f>'System Parameters'!G73</f>
+        <f>'System Parameters'!H73</f>
         <v>0</v>
       </c>
       <c r="R117" s="7">
-        <f>'System Parameters'!H73</f>
+        <f>'System Parameters'!I73</f>
         <v>0</v>
       </c>
       <c r="S117" s="7">
-        <f>'System Parameters'!I73</f>
+        <f>'System Parameters'!J73</f>
         <v>0</v>
       </c>
       <c r="T117" s="7">
-        <f>'System Parameters'!J73</f>
+        <f>'System Parameters'!K73</f>
         <v>0</v>
       </c>
       <c r="U117" s="7">
-        <f>'System Parameters'!K73</f>
-        <v>0</v>
-      </c>
-      <c r="V117" s="7">
         <f>'System Parameters'!L73</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="7">
         <f>'System Parameters'!A74</f>
         <v>0</v>
@@ -6376,34 +6423,30 @@
         <v>0</v>
       </c>
       <c r="O118" s="7">
-        <f>'System Parameters'!E74</f>
+        <f>'System Parameters'!F74</f>
         <v>0</v>
       </c>
       <c r="P118" s="7">
-        <f>'System Parameters'!F74</f>
+        <f>'System Parameters'!G74</f>
         <v>0</v>
       </c>
       <c r="Q118" s="7">
-        <f>'System Parameters'!G74</f>
+        <f>'System Parameters'!H74</f>
         <v>0</v>
       </c>
       <c r="R118" s="7">
-        <f>'System Parameters'!H74</f>
+        <f>'System Parameters'!I74</f>
         <v>0</v>
       </c>
       <c r="S118" s="7">
-        <f>'System Parameters'!I74</f>
+        <f>'System Parameters'!J74</f>
         <v>0</v>
       </c>
       <c r="T118" s="7">
-        <f>'System Parameters'!J74</f>
+        <f>'System Parameters'!K74</f>
         <v>0</v>
       </c>
       <c r="U118" s="7">
-        <f>'System Parameters'!K74</f>
-        <v>0</v>
-      </c>
-      <c r="V118" s="7">
         <f>'System Parameters'!L74</f>
         <v>0</v>
       </c>
